--- a/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
+++ b/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Week</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>DIFF_16_17</t>
+  </si>
+  <si>
+    <t>Pub_week_37</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="V16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +478,10 @@
     <col min="9" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="19" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="15" style="1" customWidth="1"/>
+    <col min="23" max="24" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,14 +551,17 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,95 +632,102 @@
         <v>3103</v>
       </c>
       <c r="X2" s="2">
+        <v>3103</v>
+      </c>
+      <c r="Y2" s="2">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="2">
-        <f t="shared" ref="Y2:AQ2" si="0">D2-C2</f>
-        <v>0</v>
-      </c>
       <c r="Z2" s="2">
-        <f t="shared" si="0"/>
+        <f>D2-C2</f>
         <v>0</v>
       </c>
       <c r="AA2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>E2-D2</f>
+        <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F2-E2</f>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" si="0"/>
+        <f>G2-F2</f>
         <v>0</v>
       </c>
       <c r="AD2" s="2">
-        <f t="shared" si="0"/>
+        <f>H2-G2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>I2-H2</f>
+        <v>0</v>
       </c>
       <c r="AF2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>J2-I2</f>
+        <v>1</v>
       </c>
       <c r="AG2" s="2">
-        <f t="shared" si="0"/>
+        <f>K2-J2</f>
         <v>0</v>
       </c>
       <c r="AH2" s="2">
-        <f t="shared" si="0"/>
+        <f>L2-K2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <f t="shared" si="0"/>
+        <f>M2-L2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <f t="shared" si="0"/>
+        <f>N2-M2</f>
         <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <f t="shared" si="0"/>
+        <f>O2-N2</f>
         <v>0</v>
       </c>
       <c r="AL2" s="2">
-        <f t="shared" si="0"/>
+        <f>P2-O2</f>
         <v>0</v>
       </c>
       <c r="AM2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>Q2-P2</f>
+        <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>R2-Q2</f>
+        <v>1</v>
       </c>
       <c r="AO2" s="2">
-        <f t="shared" si="0"/>
+        <f>S2-R2</f>
         <v>0</v>
       </c>
       <c r="AP2" s="2">
-        <f t="shared" si="0"/>
+        <f>T2-S2</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="2">
+        <f>U2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
         <f>V2-U2</f>
         <v>1</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AS2" s="2">
         <f>W2-V2</f>
         <v>0</v>
       </c>
-      <c r="AS2" s="2">
-        <f>SUM(X2:AR2)</f>
+      <c r="AT2" s="2">
+        <f>X2-W2</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <f>SUM(Y2:AT2)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -785,95 +798,102 @@
         <v>3364</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" ref="X3:X35" si="1">C3-B3</f>
-        <v>0</v>
+        <v>3364</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y35" si="2">D3-C3</f>
+        <f t="shared" ref="Y3:Y14" si="0">C3-B3</f>
         <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z35" si="3">E3-D3</f>
+        <f t="shared" ref="Z3:Z15" si="1">D3-C3</f>
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AA35" si="4">F3-E3</f>
+        <f t="shared" ref="AA3:AA16" si="2">E3-D3</f>
         <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB35" si="5">G3-F3</f>
+        <f t="shared" ref="AB3:AB17" si="3">F3-E3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC35" si="6">H3-G3</f>
+        <f t="shared" ref="AC3:AC17" si="4">G3-F3</f>
         <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD35" si="7">I3-H3</f>
+        <f t="shared" ref="AD3:AD19" si="5">H3-G3</f>
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE35" si="8">J3-I3</f>
+        <f t="shared" ref="AE3:AE20" si="6">I3-H3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF35" si="9">K3-J3</f>
+        <f t="shared" ref="AF3:AF21" si="7">J3-I3</f>
         <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG35" si="10">L3-K3</f>
+        <f t="shared" ref="AG3:AG22" si="8">K3-J3</f>
         <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH35" si="11">M3-L3</f>
+        <f t="shared" ref="AH3:AH23" si="9">L3-K3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" ref="AI3:AI35" si="12">N3-M3</f>
+        <f t="shared" ref="AI3:AI24" si="10">M3-L3</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AJ35" si="13">O3-N3</f>
+        <f t="shared" ref="AJ3:AJ25" si="11">N3-M3</f>
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" ref="AK3:AK35" si="14">P3-O3</f>
+        <f t="shared" ref="AK3:AK26" si="12">O3-N3</f>
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3:AL35" si="15">Q3-P3</f>
+        <f t="shared" ref="AL3:AL27" si="13">P3-O3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" ref="AM3:AM35" si="16">R3-Q3</f>
+        <f t="shared" ref="AM3:AM28" si="14">Q3-P3</f>
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN35" si="17">S3-R3</f>
+        <f t="shared" ref="AN3:AN29" si="15">R3-Q3</f>
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO35" si="18">T3-S3</f>
+        <f t="shared" ref="AO3:AO30" si="16">S3-R3</f>
         <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" ref="AP3:AP35" si="19">U3-T3</f>
+        <f t="shared" ref="AP3:AP31" si="17">T3-S3</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" ref="AQ3:AQ35" si="20">V3-U3</f>
+        <f t="shared" ref="AQ3:AQ32" si="18">U3-T3</f>
         <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" ref="AR3:AR35" si="21">W3-V3</f>
+        <f t="shared" ref="AR3:AR32" si="19">V3-U3</f>
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" ref="AS3:AS35" si="22">SUM(X3:AR3)</f>
+        <f t="shared" ref="AS3:AS34" si="20">W3-V3</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <f t="shared" ref="AT3:AT35" si="21">X3-W3</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <f t="shared" ref="AU3:AU35" si="22">SUM(Y3:AT3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -944,95 +964,102 @@
         <v>3154</v>
       </c>
       <c r="X4" s="2">
+        <v>3154</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AA4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AD4" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AE4" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AF4" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AN4" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AO4" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AP4" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AQ4" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AR4" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AS4" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AT4" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AU4" s="2">
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1103,95 +1130,102 @@
         <v>3045</v>
       </c>
       <c r="X5" s="2">
+        <v>3045</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AD5" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AE5" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AF5" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AN5" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AO5" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AP5" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AS5" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AT5" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AU5" s="2">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1262,95 +1296,102 @@
         <v>3162</v>
       </c>
       <c r="X6" s="2">
+        <v>3162</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AF6" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AI6" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AJ6" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AK6" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AN6" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AO6" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AP6" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AU6" s="2">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1421,95 +1462,102 @@
         <v>3193</v>
       </c>
       <c r="X7" s="2">
+        <v>3193</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AJ7" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AK7" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AL7" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AO7" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AP7" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AQ7" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AR7" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AS7" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AT7" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AU7" s="2">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1580,1049 +1628,1098 @@
         <v>3198</v>
       </c>
       <c r="X8" s="2">
+        <v>3198</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AB8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AC8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2952</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2953</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2953</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2955</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2955</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2956</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2956</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2957</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2958</v>
+      </c>
+      <c r="U9" s="2">
+        <v>2958</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2958</v>
+      </c>
+      <c r="W9" s="2">
+        <v>2958</v>
+      </c>
+      <c r="X9" s="2">
+        <v>2958</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3084</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3087</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3087</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3088</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3089</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3090</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3090</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3091</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3093</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3093</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3094</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3094</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3094</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3094</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3095</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3095</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3095</v>
+      </c>
+      <c r="S10" s="2">
+        <v>3095</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3096</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3096</v>
+      </c>
+      <c r="V10" s="2">
+        <v>3096</v>
+      </c>
+      <c r="W10" s="2">
+        <v>3096</v>
+      </c>
+      <c r="X10" s="2">
+        <v>3096</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3086</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3088</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3092</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3093</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3094</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3096</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3097</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3098</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3097</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3098</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3098</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3098</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3099</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3099</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3100</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3101</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3102</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3102</v>
+      </c>
+      <c r="T11" s="2">
+        <v>3103</v>
+      </c>
+      <c r="U11" s="2">
+        <v>3103</v>
+      </c>
+      <c r="V11" s="2">
+        <v>3103</v>
+      </c>
+      <c r="W11" s="2">
+        <v>3103</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3104</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3201</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3209</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3211</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3213</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3213</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3213</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3214</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3215</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3215</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3215</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="T12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="U12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="V12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="W12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="X12" s="2">
+        <v>3216</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3575</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3586</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3593</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3596</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3600</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3606</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3606</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3609</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3610</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3610</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3611</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="U13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="V13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3612</v>
+      </c>
+      <c r="X13" s="2">
+        <v>3613</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AU13" s="2">
+        <f t="shared" si="22"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4308</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4425</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4432</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4438</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4441</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4445</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4447</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4449</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4452</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4452</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4452</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4456</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4456</v>
+      </c>
+      <c r="O14" s="2">
+        <v>4456</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4457</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="R14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="S14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="T14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="W14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4458</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AD14" s="2">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AE14" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2952</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2953</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2953</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2955</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2955</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2956</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2956</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="R9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="S9" s="2">
-        <v>2957</v>
-      </c>
-      <c r="T9" s="2">
-        <v>2958</v>
-      </c>
-      <c r="U9" s="2">
-        <v>2958</v>
-      </c>
-      <c r="V9" s="2">
-        <v>2958</v>
-      </c>
-      <c r="W9" s="2">
-        <v>2958</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP9" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3084</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3087</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3087</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3088</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3089</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3090</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3090</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3091</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3093</v>
-      </c>
-      <c r="K10" s="2">
-        <v>3093</v>
-      </c>
-      <c r="L10" s="2">
-        <v>3094</v>
-      </c>
-      <c r="M10" s="2">
-        <v>3094</v>
-      </c>
-      <c r="N10" s="2">
-        <v>3094</v>
-      </c>
-      <c r="O10" s="2">
-        <v>3094</v>
-      </c>
-      <c r="P10" s="2">
-        <v>3095</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>3095</v>
-      </c>
-      <c r="R10" s="2">
-        <v>3095</v>
-      </c>
-      <c r="S10" s="2">
-        <v>3095</v>
-      </c>
-      <c r="T10" s="2">
-        <v>3096</v>
-      </c>
-      <c r="U10" s="2">
-        <v>3096</v>
-      </c>
-      <c r="V10" s="2">
-        <v>3096</v>
-      </c>
-      <c r="W10" s="2">
-        <v>3096</v>
-      </c>
-      <c r="X10" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB10" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH10" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS10" s="2">
-        <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3086</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3088</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3092</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3093</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3094</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3096</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3097</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3098</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3097</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3098</v>
-      </c>
-      <c r="L11" s="2">
-        <v>3098</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3098</v>
-      </c>
-      <c r="N11" s="2">
-        <v>3099</v>
-      </c>
-      <c r="O11" s="2">
-        <v>3099</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3100</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>3101</v>
-      </c>
-      <c r="R11" s="2">
-        <v>3102</v>
-      </c>
-      <c r="S11" s="2">
-        <v>3102</v>
-      </c>
-      <c r="T11" s="2">
-        <v>3103</v>
-      </c>
-      <c r="U11" s="2">
-        <v>3103</v>
-      </c>
-      <c r="V11" s="2">
-        <v>3103</v>
-      </c>
-      <c r="W11" s="2">
-        <v>3103</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="AF11" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL11" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM11" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN11" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR11" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS11" s="2">
-        <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3201</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3209</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3211</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3213</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3213</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3213</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3214</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3215</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3215</v>
-      </c>
-      <c r="K12" s="2">
-        <v>3215</v>
-      </c>
-      <c r="L12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="M12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="N12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="O12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="R12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="S12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="T12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="U12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="V12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="W12" s="2">
-        <v>3216</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH12" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS12" s="2">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3575</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3586</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3593</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3596</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3600</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3606</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3606</v>
-      </c>
-      <c r="I13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="M13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3609</v>
-      </c>
-      <c r="O13" s="2">
-        <v>3610</v>
-      </c>
-      <c r="P13" s="2">
-        <v>3610</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>3611</v>
-      </c>
-      <c r="R13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="S13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="T13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="U13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="V13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="W13" s="2">
-        <v>3612</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA13" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AB13" s="2">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AC13" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
+      <c r="AF14" s="2">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AG14" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AH14" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AI14" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AM14" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="AQ14" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="AR14" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AS14" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AT14" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="2">
-        <f t="shared" si="22"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4308</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4425</v>
-      </c>
-      <c r="D14" s="2">
-        <v>4432</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4438</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4441</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4445</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4447</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4449</v>
-      </c>
-      <c r="J14" s="2">
-        <v>4452</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4452</v>
-      </c>
-      <c r="L14" s="2">
-        <v>4452</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4456</v>
-      </c>
-      <c r="N14" s="2">
-        <v>4456</v>
-      </c>
-      <c r="O14" s="2">
-        <v>4456</v>
-      </c>
-      <c r="P14" s="2">
-        <v>4457</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="R14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="S14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="T14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="U14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="V14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="W14" s="2">
-        <v>4458</v>
-      </c>
-      <c r="X14" s="2">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AC14" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AI14" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL14" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM14" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="2">
+      <c r="AU14" s="2">
         <f t="shared" si="22"/>
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2690,93 +2787,100 @@
       <c r="W15" s="2">
         <v>5084</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2">
+      <c r="X15" s="2">
+        <v>5084</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+      <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>-61</v>
-      </c>
-      <c r="Z15" s="2">
+        <v>31</v>
+      </c>
+      <c r="AB15" s="2">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="AA15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AD15" s="2">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AG15" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AL15" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AO15" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AP15" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="AQ15" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AR15" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AS15" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AT15" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AU15" s="2">
         <f t="shared" si="22"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2842,90 +2946,97 @@
       <c r="W16" s="2">
         <v>4977</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <v>4978</v>
+      </c>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2">
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2">
+        <f t="shared" si="2"/>
+        <v>-99</v>
+      </c>
+      <c r="AB16" s="2">
         <f t="shared" si="3"/>
-        <v>-99</v>
-      </c>
-      <c r="AA16" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="AB16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="2">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="2">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AH16" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AJ16" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AM16" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AN16" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="2">
+      <c r="AO16" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="2">
+      <c r="AP16" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="2">
+      <c r="AQ16" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="2">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AQ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2">
         <f t="shared" si="22"/>
-        <v>-59</v>
+        <v>-58</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2989,87 +3100,94 @@
       <c r="W17" s="2">
         <v>4299</v>
       </c>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>4299</v>
+      </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="3"/>
+        <v>-49</v>
+      </c>
+      <c r="AC17" s="2">
         <f t="shared" si="4"/>
-        <v>-49</v>
-      </c>
-      <c r="AB17" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD17" s="2">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AG17" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AL17" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AM17" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AN17" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="2">
+      <c r="AQ17" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AT17" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AU17" s="2">
         <f t="shared" si="22"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3131,84 +3249,91 @@
       <c r="W18" s="2">
         <v>3905</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>3905</v>
+      </c>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
         <f>G18-F18</f>
         <v>-147</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AD18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="2">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AE18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AF18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL18" s="2">
         <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AK18" s="2">
+        <v>-7</v>
+      </c>
+      <c r="AM18" s="2">
         <f t="shared" si="14"/>
-        <v>-7</v>
-      </c>
-      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AO18" s="2">
         <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AN18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="2">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AS18" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AU18" s="2">
         <f t="shared" si="22"/>
         <v>-123</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3268,81 +3393,88 @@
       <c r="W19" s="2">
         <v>3378</v>
       </c>
-      <c r="X19" s="2"/>
+      <c r="X19" s="2">
+        <v>3378</v>
+      </c>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2">
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AE19" s="2">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="AD19" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" s="2">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="AE19" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="2">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AG19" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AH19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AO19" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AS19" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AT19" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AU19" s="2">
         <f t="shared" si="22"/>
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3400,78 +3532,85 @@
       <c r="W20" s="2">
         <v>2982</v>
       </c>
-      <c r="X20" s="2"/>
+      <c r="X20" s="2">
+        <v>2982</v>
+      </c>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <f t="shared" si="6"/>
+        <v>-74</v>
+      </c>
+      <c r="AF20" s="2">
         <f t="shared" si="7"/>
-        <v>-74</v>
-      </c>
-      <c r="AE20" s="2">
+        <v>13</v>
+      </c>
+      <c r="AG20" s="2">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="AF20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="2">
         <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="2">
+      <c r="AL20" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AK20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AQ20" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
         <f t="shared" si="22"/>
         <v>-48</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3527,75 +3666,82 @@
       <c r="W21" s="2">
         <v>2773</v>
       </c>
-      <c r="X21" s="2"/>
+      <c r="X21" s="2">
+        <v>2773</v>
+      </c>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2">
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2">
+        <f t="shared" si="7"/>
+        <v>-77</v>
+      </c>
+      <c r="AG21" s="2">
         <f t="shared" si="8"/>
-        <v>-77</v>
-      </c>
-      <c r="AF21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH21" s="2">
         <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="AG21" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AK21" s="2">
+      <c r="AM21" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AL21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="2">
+      <c r="AP21" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AQ21" s="2">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AR21" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AS21" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2">
         <f t="shared" si="22"/>
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3649,7 +3795,9 @@
       <c r="W22" s="2">
         <v>2769</v>
       </c>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>2769</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -3657,64 +3805,69 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="2">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AH22" s="2">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AG22" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI22" s="2">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AH22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AI22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AM22" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AN22" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AQ22" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AS22" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="2">
         <f t="shared" si="22"/>
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3766,7 +3919,9 @@
       <c r="W23" s="2">
         <v>2724</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <v>2724</v>
+      </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -3775,60 +3930,65 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="2">
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AI23" s="2">
         <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="AH23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AI23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="2">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="AJ23" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AM23" s="2">
+      <c r="AO23" s="2">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AQ23" s="2">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="2">
+      <c r="AS23" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AT23" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS23" s="2">
+      <c r="AU23" s="2">
         <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3878,7 +4038,9 @@
       <c r="W24" s="2">
         <v>2681</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>2682</v>
+      </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -3888,56 +4050,61 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2">
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AJ24" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AI24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="2">
         <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AJ24" s="2">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="AK24" s="2">
+      <c r="AM24" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AL24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AO24" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="2">
+      <c r="AQ24" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR24" s="2">
+      <c r="AT24" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3985,7 +4152,9 @@
       <c r="W25" s="2">
         <v>2691</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" s="2">
+        <v>2691</v>
+      </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -3996,52 +4165,57 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="2">
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AK25" s="2">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AJ25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL25" s="2">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AK25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="2">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AN25" s="2">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="2">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AP25" s="2">
+      <c r="AR25" s="2">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AT25" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AU25" s="2">
         <f t="shared" si="22"/>
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4087,7 +4261,9 @@
       <c r="W26" s="2">
         <v>2691</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>2691</v>
+      </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -4099,48 +4275,53 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="2">
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AL26" s="2">
         <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="AK26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="2">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AL26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN26" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="2">
+      <c r="AP26" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ26" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AP26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="2">
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4184,7 +4365,9 @@
       <c r="W27" s="2">
         <v>2659</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <v>2659</v>
+      </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -4197,44 +4380,49 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="2">
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AM27" s="2">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AL27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN27" s="2">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AM27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO27" s="2">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="2">
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="AN27" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2">
+      <c r="AQ27" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AS27" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AT27" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AU27" s="2">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4276,7 +4464,9 @@
       <c r="W28" s="2">
         <v>2635</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" s="2">
+        <v>2635</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -4290,40 +4480,45 @@
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="2">
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="AN28" s="2">
         <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="AM28" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO28" s="2">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="2">
+        <v>7</v>
+      </c>
+      <c r="AQ28" s="2">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="2">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="2">
+      <c r="AS28" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="2">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="2">
         <f t="shared" si="22"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4363,7 +4558,9 @@
       <c r="W29" s="2">
         <v>2612</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" s="2">
+        <v>2612</v>
+      </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -4378,36 +4575,41 @@
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
-      <c r="AM29" s="2">
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AO29" s="2">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="AN29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="2">
+        <v>9</v>
+      </c>
+      <c r="AQ29" s="2">
         <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="AP29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR29" s="2">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AQ29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS29" s="2">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="AR29" s="2">
+      <c r="AT29" s="2">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AS29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="2">
         <f t="shared" si="22"/>
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4445,7 +4647,9 @@
       <c r="W30" s="2">
         <v>2520</v>
       </c>
-      <c r="X30" s="2"/>
+      <c r="X30" s="2">
+        <v>2523</v>
+      </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -4461,32 +4665,37 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
-      <c r="AN30" s="2">
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="2">
+        <v>18</v>
+      </c>
+      <c r="AQ30" s="2">
         <f t="shared" si="18"/>
-        <v>18</v>
-      </c>
-      <c r="AP30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="2">
         <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AS30" s="2">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="AQ30" s="2">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AR30" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS30" s="2">
+      <c r="AU30" s="2">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4522,7 +4731,9 @@
       <c r="W31" s="2">
         <v>2668</v>
       </c>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2">
+        <v>2669</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -4539,28 +4750,33 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="2">
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="AQ31" s="2">
         <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="AP31" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR31" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AQ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AR31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="2">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AS31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="2">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4594,7 +4810,9 @@
       <c r="W32" s="2">
         <v>2641</v>
       </c>
-      <c r="X32" s="2"/>
+      <c r="X32" s="2">
+        <v>2651</v>
+      </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
@@ -4612,24 +4830,29 @@
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
-      <c r="AP32" s="2">
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="AR32" s="2">
         <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="AQ32" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS32" s="2">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="AR32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AS32" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU32" s="2">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4661,7 +4884,9 @@
       <c r="W33" s="2">
         <v>2625</v>
       </c>
-      <c r="X33" s="2"/>
+      <c r="X33" s="2">
+        <v>2628</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -4680,20 +4905,25 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
-      <c r="AQ33" s="2">
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2">
         <f>V33-U33</f>
         <v>14</v>
       </c>
-      <c r="AR33" s="2">
+      <c r="AS33" s="2">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AT33" s="2">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AS33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU33" s="2">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4723,7 +4953,9 @@
       <c r="W34" s="2">
         <v>3189</v>
       </c>
-      <c r="X34" s="2"/>
+      <c r="X34" s="2">
+        <v>3197</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -4743,16 +4975,21 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
-      <c r="AR34" s="2">
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2">
+        <f>W34-V34</f>
+        <v>17</v>
+      </c>
+      <c r="AT34" s="2">
         <f t="shared" si="21"/>
-        <v>17</v>
-      </c>
-      <c r="AS34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU34" s="2">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4780,7 +5017,9 @@
       <c r="W35" s="2">
         <v>2810</v>
       </c>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2">
+        <v>2821</v>
+      </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -4802,8 +5041,16 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
+      <c r="AT35" s="2">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AU35" s="2">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4827,95 +5074,102 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2">
-        <f t="shared" ref="X36:AQ36" si="23">SUM(X2:X34)</f>
+        <v>2689</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" ref="Y36:AR36" si="23">SUM(Y2:Y34)</f>
         <v>143</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Z36" s="2">
         <f t="shared" si="23"/>
         <v>-41</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <f t="shared" si="23"/>
         <v>-50</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
         <f t="shared" si="23"/>
         <v>-15</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AC36" s="2">
         <f t="shared" si="23"/>
         <v>-95</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36" s="2">
         <f t="shared" si="23"/>
         <v>59</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
         <f t="shared" si="23"/>
         <v>-31</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AF36" s="2">
         <f t="shared" si="23"/>
         <v>-39</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AG36" s="2">
         <f t="shared" si="23"/>
         <v>27</v>
       </c>
-      <c r="AG36" s="2">
+      <c r="AH36" s="2">
         <f t="shared" si="23"/>
         <v>37</v>
       </c>
-      <c r="AH36" s="2">
+      <c r="AI36" s="2">
         <f t="shared" si="23"/>
         <v>21</v>
       </c>
-      <c r="AI36" s="2">
+      <c r="AJ36" s="2">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="AJ36" s="2">
+      <c r="AK36" s="2">
         <f t="shared" si="23"/>
         <v>46</v>
       </c>
-      <c r="AK36" s="2">
+      <c r="AL36" s="2">
         <f t="shared" si="23"/>
         <v>17</v>
       </c>
-      <c r="AL36" s="2">
+      <c r="AM36" s="2">
         <f t="shared" si="23"/>
         <v>34</v>
       </c>
-      <c r="AM36" s="2">
+      <c r="AN36" s="2">
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-      <c r="AN36" s="2">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
       <c r="AO36" s="2">
         <f t="shared" si="23"/>
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="2">
         <f t="shared" si="23"/>
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AQ36" s="2">
         <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="23"/>
         <v>29</v>
-      </c>
-      <c r="AR36" s="2">
-        <f>SUM(AR2:AR34)</f>
-        <v>31</v>
       </c>
       <c r="AS36" s="2">
         <f>SUM(AS2:AS34)</f>
-        <v>337</v>
+        <v>31</v>
+      </c>
+      <c r="AT36" s="2">
+        <f>SUM(AT2:AT34)</f>
+        <v>29</v>
+      </c>
+      <c r="AU36" s="2">
+        <f>SUM(AU2:AU35)</f>
+        <v>377</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4939,8 +5193,9 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4964,8 +5219,9 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4989,8 +5245,9 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5014,8 +5271,9 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5039,8 +5297,9 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5064,18 +5323,23 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W43"/>
+      <c r="X43"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W44"/>
+      <c r="X44"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W45"/>
+      <c r="X45"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="W46"/>
+      <c r="X46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
+++ b/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Pub_week_37</t>
+  </si>
+  <si>
+    <t>Pub_week_38</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU46"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU38" sqref="AU38"/>
+    <sheetView tabSelected="1" topLeftCell="Y8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW33" sqref="AW33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +481,10 @@
     <col min="9" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
     <col min="19" max="22" width="15" customWidth="1"/>
-    <col min="23" max="24" width="15" style="1" customWidth="1"/>
+    <col min="23" max="25" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,14 +557,17 @@
       <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,100 +640,107 @@
       <c r="X2" s="2">
         <v>3103</v>
       </c>
-      <c r="Y2" s="2">
-        <f>C2-B2</f>
-        <v>0</v>
+      <c r="Y2">
+        <v>3103</v>
       </c>
       <c r="Z2" s="2">
-        <f>D2-C2</f>
+        <f t="shared" ref="Z2:AV17" si="0">C2-B2</f>
         <v>0</v>
       </c>
       <c r="AA2" s="2">
-        <f>E2-D2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB2" s="2">
-        <f>F2-E2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
-        <f>G2-F2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AD2" s="2">
-        <f>H2-G2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <f>I2-H2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF2" s="2">
-        <f>J2-I2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AG2" s="2">
-        <f>K2-J2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AH2" s="2">
-        <f>L2-K2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <f>M2-L2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <f>N2-M2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <f>O2-N2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL2" s="2">
-        <f>P2-O2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM2" s="2">
-        <f>Q2-P2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <f>R2-Q2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <f>S2-R2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AP2" s="2">
-        <f>T2-S2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AQ2" s="2">
-        <f>U2-T2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AR2" s="2">
-        <f>V2-U2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <f>W2-V2</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AT2" s="2">
-        <f>X2-W2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU2" s="2">
-        <f>SUM(Y2:AT2)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
+        <f>SUM(Z2:AX2)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -800,100 +813,107 @@
       <c r="X3" s="2">
         <v>3364</v>
       </c>
-      <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y14" si="0">C3-B3</f>
-        <v>0</v>
+      <c r="Y3">
+        <v>3364</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z15" si="1">D3-C3</f>
+        <f t="shared" ref="Z3:Z14" si="1">C3-B3</f>
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AA16" si="2">E3-D3</f>
+        <f t="shared" ref="AA3:AA15" si="2">D3-C3</f>
         <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB17" si="3">F3-E3</f>
+        <f t="shared" ref="AB3:AB16" si="3">E3-D3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC17" si="4">G3-F3</f>
+        <f t="shared" ref="AC3:AC17" si="4">F3-E3</f>
         <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD19" si="5">H3-G3</f>
+        <f t="shared" ref="AD3:AD17" si="5">G3-F3</f>
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE20" si="6">I3-H3</f>
+        <f t="shared" ref="AE3:AE19" si="6">H3-G3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF21" si="7">J3-I3</f>
+        <f t="shared" ref="AF3:AF20" si="7">I3-H3</f>
         <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG22" si="8">K3-J3</f>
+        <f t="shared" ref="AG3:AG21" si="8">J3-I3</f>
         <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH23" si="9">L3-K3</f>
+        <f t="shared" ref="AH3:AH22" si="9">K3-J3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" ref="AI3:AI24" si="10">M3-L3</f>
+        <f t="shared" ref="AI3:AI23" si="10">L3-K3</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AJ25" si="11">N3-M3</f>
+        <f t="shared" ref="AJ3:AJ24" si="11">M3-L3</f>
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" ref="AK3:AK26" si="12">O3-N3</f>
+        <f t="shared" ref="AK3:AK25" si="12">N3-M3</f>
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3:AL27" si="13">P3-O3</f>
+        <f t="shared" ref="AL3:AL26" si="13">O3-N3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" ref="AM3:AM28" si="14">Q3-P3</f>
+        <f t="shared" ref="AM3:AM27" si="14">P3-O3</f>
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN29" si="15">R3-Q3</f>
+        <f t="shared" ref="AN3:AN28" si="15">Q3-P3</f>
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO30" si="16">S3-R3</f>
+        <f t="shared" ref="AO3:AO29" si="16">R3-Q3</f>
         <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" ref="AP3:AP31" si="17">T3-S3</f>
+        <f t="shared" ref="AP3:AP30" si="17">S3-R3</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" ref="AQ3:AQ32" si="18">U3-T3</f>
+        <f t="shared" ref="AQ3:AQ31" si="18">T3-S3</f>
         <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" ref="AR3:AR32" si="19">V3-U3</f>
+        <f t="shared" ref="AR3:AR32" si="19">U3-T3</f>
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" ref="AS3:AS34" si="20">W3-V3</f>
+        <f t="shared" ref="AS3:AS32" si="20">V3-U3</f>
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" ref="AT3:AT35" si="21">X3-W3</f>
+        <f t="shared" ref="AT3:AT33" si="21">W3-V3</f>
         <v>0</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" ref="AU3:AU35" si="22">SUM(Y3:AT3)</f>
+        <f t="shared" ref="AU3:AV35" si="22">X3-W3</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
+        <f t="shared" ref="AY3:AY36" si="23">SUM(Z3:AX3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -966,9 +986,8 @@
       <c r="X4" s="2">
         <v>3154</v>
       </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Y4">
+        <v>3154</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="1"/>
@@ -976,11 +995,11 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="4"/>
@@ -996,11 +1015,11 @@
       </c>
       <c r="AF4" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" si="9"/>
@@ -1012,11 +1031,11 @@
       </c>
       <c r="AJ4" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="2">
         <f t="shared" si="13"/>
@@ -1056,10 +1075,18 @@
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1132,9 +1159,8 @@
       <c r="X5" s="2">
         <v>3045</v>
       </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Y5">
+        <v>3045</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="1"/>
@@ -1142,11 +1168,11 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="4"/>
@@ -1162,19 +1188,19 @@
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="2">
         <f t="shared" si="11"/>
@@ -1182,11 +1208,11 @@
       </c>
       <c r="AK5" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="2">
         <f t="shared" si="14"/>
@@ -1202,11 +1228,11 @@
       </c>
       <c r="AP5" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="2">
         <f t="shared" si="19"/>
@@ -1222,10 +1248,18 @@
       </c>
       <c r="AU5" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1298,9 +1332,8 @@
       <c r="X6" s="2">
         <v>3162</v>
       </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Y6">
+        <v>3162</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="1"/>
@@ -1308,19 +1341,19 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" si="6"/>
@@ -1328,11 +1361,11 @@
       </c>
       <c r="AF6" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="9"/>
@@ -1368,19 +1401,19 @@
       </c>
       <c r="AP6" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="2">
         <f t="shared" si="21"/>
@@ -1388,10 +1421,18 @@
       </c>
       <c r="AU6" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2">
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1464,13 +1505,12 @@
       <c r="X7" s="2">
         <v>3193</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="Y7">
+        <v>3193</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
@@ -1478,15 +1518,15 @@
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" si="6"/>
@@ -1494,15 +1534,15 @@
       </c>
       <c r="AF7" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" si="10"/>
@@ -1518,11 +1558,11 @@
       </c>
       <c r="AL7" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="15"/>
@@ -1554,10 +1594,18 @@
       </c>
       <c r="AU7" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1630,9 +1678,8 @@
       <c r="X8" s="2">
         <v>3198</v>
       </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="Y8">
+        <v>3198</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="1"/>
@@ -1648,11 +1695,11 @@
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" si="6"/>
@@ -1664,11 +1711,11 @@
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="10"/>
@@ -1720,10 +1767,18 @@
       </c>
       <c r="AU8" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1796,37 +1851,36 @@
       <c r="X9" s="2">
         <v>2958</v>
       </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="Y9">
+        <v>2958</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="8"/>
@@ -1866,11 +1920,11 @@
       </c>
       <c r="AP9" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="2">
         <f t="shared" si="19"/>
@@ -1886,10 +1940,18 @@
       </c>
       <c r="AU9" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1962,17 +2024,16 @@
       <c r="X10" s="2">
         <v>3096</v>
       </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="Y10">
+        <v>3096</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="3"/>
@@ -1984,27 +2045,27 @@
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="2">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2">
         <f t="shared" si="11"/>
@@ -2016,11 +2077,11 @@
       </c>
       <c r="AL10" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="15"/>
@@ -2032,11 +2093,11 @@
       </c>
       <c r="AP10" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="2">
         <f t="shared" si="19"/>
@@ -2052,10 +2113,18 @@
       </c>
       <c r="AU10" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2128,17 +2197,16 @@
       <c r="X11" s="2">
         <v>3104</v>
       </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="Y11">
+        <v>3104</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="3"/>
@@ -2146,11 +2214,11 @@
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" si="6"/>
@@ -2158,15 +2226,15 @@
       </c>
       <c r="AF11" s="2">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="10"/>
@@ -2174,15 +2242,15 @@
       </c>
       <c r="AJ11" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="14"/>
@@ -2194,15 +2262,15 @@
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" si="19"/>
@@ -2214,14 +2282,22 @@
       </c>
       <c r="AT11" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2">
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2294,13 +2370,12 @@
       <c r="X12" s="2">
         <v>3216</v>
       </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="Y12">
+        <v>3216</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
@@ -2308,7 +2383,7 @@
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="4"/>
@@ -2316,7 +2391,7 @@
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" si="6"/>
@@ -2324,7 +2399,7 @@
       </c>
       <c r="AF12" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="8"/>
@@ -2332,11 +2407,11 @@
       </c>
       <c r="AH12" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" si="11"/>
@@ -2384,10 +2459,18 @@
       </c>
       <c r="AU12" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2460,37 +2543,36 @@
       <c r="X13" s="2">
         <v>3613</v>
       </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="Y13">
+        <v>3615</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE13" s="2">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="8"/>
@@ -2510,15 +2592,15 @@
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="15"/>
@@ -2526,7 +2608,7 @@
       </c>
       <c r="AO13" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2">
         <f t="shared" si="17"/>
@@ -2546,14 +2628,22 @@
       </c>
       <c r="AT13" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
         <f t="shared" si="22"/>
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="AV13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AY13" s="2">
+        <f t="shared" si="23"/>
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2626,29 +2716,28 @@
       <c r="X14" s="2">
         <v>4458</v>
       </c>
-      <c r="Y14" s="2">
-        <f t="shared" si="0"/>
-        <v>117</v>
+      <c r="Y14">
+        <v>4458</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="2">
         <f t="shared" si="6"/>
@@ -2656,11 +2745,11 @@
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" si="9"/>
@@ -2668,11 +2757,11 @@
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="12"/>
@@ -2680,7 +2769,7 @@
       </c>
       <c r="AL14" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="14"/>
@@ -2688,7 +2777,7 @@
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="16"/>
@@ -2716,10 +2805,18 @@
       </c>
       <c r="AU14" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" si="23"/>
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2790,18 +2887,17 @@
       <c r="X15" s="2">
         <v>5084</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2">
-        <f t="shared" si="1"/>
-        <v>-61</v>
-      </c>
+      <c r="Y15">
+        <v>5084</v>
+      </c>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>-61</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="4"/>
@@ -2809,11 +2905,11 @@
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE15" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" si="7"/>
@@ -2821,19 +2917,19 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="12"/>
@@ -2841,11 +2937,11 @@
       </c>
       <c r="AL15" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="15"/>
@@ -2877,10 +2973,18 @@
       </c>
       <c r="AU15" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" si="23"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2949,31 +3053,30 @@
       <c r="X16" s="2">
         <v>4978</v>
       </c>
-      <c r="Y16" s="2"/>
+      <c r="Y16">
+        <v>4978</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <f t="shared" si="2"/>
-        <v>-99</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>-99</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="8"/>
@@ -2981,7 +3084,7 @@
       </c>
       <c r="AH16" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="10"/>
@@ -2989,11 +3092,11 @@
       </c>
       <c r="AJ16" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="2">
         <f t="shared" si="13"/>
@@ -3017,26 +3120,34 @@
       </c>
       <c r="AQ16" s="2">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS16" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
         <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2">
+        <f t="shared" si="23"/>
         <v>-58</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3103,24 +3214,23 @@
       <c r="X17" s="2">
         <v>4299</v>
       </c>
-      <c r="Y17" s="2"/>
+      <c r="Y17">
+        <v>4299</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
-        <f t="shared" si="3"/>
-        <v>-49</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>-49</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="7"/>
@@ -3128,19 +3238,19 @@
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="12"/>
@@ -3156,11 +3266,11 @@
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="2">
         <f t="shared" si="17"/>
@@ -3168,11 +3278,11 @@
       </c>
       <c r="AQ17" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="2">
         <f t="shared" si="20"/>
@@ -3184,10 +3294,18 @@
       </c>
       <c r="AU17" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2">
+        <f t="shared" si="23"/>
         <v>-14</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3252,69 +3370,68 @@
       <c r="X18" s="2">
         <v>3905</v>
       </c>
-      <c r="Y18" s="2"/>
+      <c r="Y18">
+        <v>3906</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2">
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2">
         <f>G18-F18</f>
         <v>-147</v>
       </c>
-      <c r="AD18" s="2">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
       <c r="AE18" s="2">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="2">
         <f t="shared" si="13"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="15"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AP18" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="2">
         <f t="shared" si="19"/>
@@ -3322,7 +3439,7 @@
       </c>
       <c r="AS18" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="2">
         <f t="shared" si="21"/>
@@ -3330,10 +3447,18 @@
       </c>
       <c r="AU18" s="2">
         <f t="shared" si="22"/>
-        <v>-123</v>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" si="23"/>
+        <v>-122</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3396,50 +3521,49 @@
       <c r="X19" s="2">
         <v>3378</v>
       </c>
-      <c r="Y19" s="2"/>
+      <c r="Y19">
+        <v>3378</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="15"/>
@@ -3447,15 +3571,15 @@
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="2">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" si="19"/>
@@ -3471,10 +3595,18 @@
       </c>
       <c r="AU19" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="2">
+        <f t="shared" si="23"/>
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3535,31 +3667,30 @@
       <c r="X20" s="2">
         <v>2982</v>
       </c>
-      <c r="Y20" s="2"/>
+      <c r="Y20">
+        <v>2982</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <f t="shared" si="6"/>
-        <v>-74</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>-74</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ20" s="2">
         <f t="shared" si="11"/>
@@ -3567,23 +3698,23 @@
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="2">
         <f t="shared" si="17"/>
@@ -3591,26 +3722,34 @@
       </c>
       <c r="AQ20" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2">
+        <f t="shared" si="23"/>
         <v>-48</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3669,48 +3808,47 @@
       <c r="X21" s="2">
         <v>2773</v>
       </c>
-      <c r="Y21" s="2"/>
+      <c r="Y21">
+        <v>2773</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="2">
-        <f t="shared" si="7"/>
-        <v>-77</v>
-      </c>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>-77</v>
       </c>
       <c r="AH21" s="2">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="2">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="2">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="16"/>
@@ -3730,18 +3868,26 @@
       </c>
       <c r="AS21" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="2">
+        <f t="shared" si="23"/>
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3798,7 +3944,9 @@
       <c r="X22" s="2">
         <v>2769</v>
       </c>
-      <c r="Y22" s="2"/>
+      <c r="Y22">
+        <v>2770</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -3806,25 +3954,22 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AJ22" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="2">
         <f t="shared" si="13"/>
@@ -3836,19 +3981,19 @@
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR22" s="2">
         <f t="shared" si="19"/>
@@ -3856,18 +4001,26 @@
       </c>
       <c r="AS22" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" si="23"/>
+        <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3922,7 +4075,9 @@
       <c r="X23" s="2">
         <v>2724</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23">
+        <v>2725</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -3931,45 +4086,42 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AJ23" s="2">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23" s="2">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR23" s="2">
         <f t="shared" si="19"/>
@@ -3985,10 +4137,18 @@
       </c>
       <c r="AU23" s="2">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="23"/>
+        <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4041,7 +4201,9 @@
       <c r="X24" s="2">
         <v>2682</v>
       </c>
-      <c r="Y24" s="2"/>
+      <c r="Y24">
+        <v>2682</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -4051,25 +4213,22 @@
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="2">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
+      <c r="AI24" s="2"/>
       <c r="AJ24" s="2">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AL24" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="15"/>
@@ -4077,7 +4236,7 @@
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="2">
         <f t="shared" si="17"/>
@@ -4085,11 +4244,11 @@
       </c>
       <c r="AQ24" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="2">
         <f t="shared" si="20"/>
@@ -4097,14 +4256,22 @@
       </c>
       <c r="AT24" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2">
         <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV24" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="2">
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4155,7 +4322,9 @@
       <c r="X25" s="2">
         <v>2691</v>
       </c>
-      <c r="Y25" s="2"/>
+      <c r="Y25">
+        <v>2691</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -4166,17 +4335,14 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="2">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
+      <c r="AJ25" s="2"/>
       <c r="AK25" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL25" s="2">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="14"/>
@@ -4184,7 +4350,7 @@
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="16"/>
@@ -4192,15 +4358,15 @@
       </c>
       <c r="AP25" s="2">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR25" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS25" s="2">
         <f t="shared" si="20"/>
@@ -4212,10 +4378,18 @@
       </c>
       <c r="AU25" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="2">
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4264,7 +4438,9 @@
       <c r="X26" s="2">
         <v>2691</v>
       </c>
-      <c r="Y26" s="2"/>
+      <c r="Y26">
+        <v>2691</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -4276,21 +4452,18 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="16"/>
@@ -4298,30 +4471,38 @@
       </c>
       <c r="AP26" s="2">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="2">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR26" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2">
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4368,7 +4549,9 @@
       <c r="X27" s="2">
         <v>2659</v>
       </c>
-      <c r="Y27" s="2"/>
+      <c r="Y27">
+        <v>2659</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -4381,29 +4564,26 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-      <c r="AL27" s="2">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
+      <c r="AL27" s="2"/>
       <c r="AM27" s="2">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP27" s="2">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR27" s="2">
         <f t="shared" si="19"/>
@@ -4419,10 +4599,18 @@
       </c>
       <c r="AU27" s="2">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4467,7 +4655,9 @@
       <c r="X28" s="2">
         <v>2635</v>
       </c>
-      <c r="Y28" s="2"/>
+      <c r="Y28">
+        <v>2636</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -4481,25 +4671,22 @@
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
-      <c r="AM28" s="2">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
+      <c r="AM28" s="2"/>
       <c r="AN28" s="2">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP28" s="2">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="2">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR28" s="2">
         <f t="shared" si="19"/>
@@ -4507,18 +4694,26 @@
       </c>
       <c r="AS28" s="2">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU28" s="2">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY28" s="2">
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4561,7 +4756,9 @@
       <c r="X29" s="2">
         <v>2612</v>
       </c>
-      <c r="Y29" s="2"/>
+      <c r="Y29">
+        <v>2614</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -4576,25 +4773,22 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
-      <c r="AN29" s="2">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP29" s="2">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AR29" s="2">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS29" s="2">
         <f t="shared" si="20"/>
@@ -4602,14 +4796,22 @@
       </c>
       <c r="AT29" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU29" s="2">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AY29" s="2">
+        <f t="shared" si="23"/>
+        <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4650,7 +4852,9 @@
       <c r="X30" s="2">
         <v>2523</v>
       </c>
-      <c r="Y30" s="2"/>
+      <c r="Y30">
+        <v>2524</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -4666,36 +4870,41 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="AO30" s="2"/>
       <c r="AP30" s="2">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="2">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AR30" s="2">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS30" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT30" s="2">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="2">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="AV30" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY30" s="2">
+        <f t="shared" si="23"/>
+        <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4734,7 +4943,9 @@
       <c r="X31" s="2">
         <v>2669</v>
       </c>
-      <c r="Y31" s="2"/>
+      <c r="Y31">
+        <v>2669</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -4751,32 +4962,37 @@
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
-      <c r="AP31" s="2">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
+      <c r="AP31" s="2"/>
       <c r="AQ31" s="2">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AR31" s="2">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS31" s="2">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="2">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU31" s="2">
         <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV31" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AY31" s="2">
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4813,7 +5029,9 @@
       <c r="X32" s="2">
         <v>2651</v>
       </c>
-      <c r="Y32" s="2"/>
+      <c r="Y32">
+        <v>2655</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -4831,28 +5049,33 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
-      <c r="AQ32" s="2">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
+      <c r="AQ32" s="2"/>
       <c r="AR32" s="2">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AS32" s="2">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT32" s="2">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AU32" s="2">
         <f t="shared" si="22"/>
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="AV32" s="2">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" si="23"/>
+        <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4887,7 +5110,9 @@
       <c r="X33" s="2">
         <v>2628</v>
       </c>
-      <c r="Y33" s="2"/>
+      <c r="Y33">
+        <v>2629</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -4906,24 +5131,29 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
-      <c r="AR33" s="2">
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2">
         <f>V33-U33</f>
         <v>14</v>
       </c>
-      <c r="AS33" s="2">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
       <c r="AT33" s="2">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU33" s="2">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="AV33" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AY33" s="2">
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4956,7 +5186,9 @@
       <c r="X34" s="2">
         <v>3197</v>
       </c>
-      <c r="Y34" s="2"/>
+      <c r="Y34">
+        <v>3201</v>
+      </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
@@ -4976,20 +5208,25 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
-      <c r="AS34" s="2">
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2">
         <f>W34-V34</f>
         <v>17</v>
       </c>
-      <c r="AT34" s="2">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
       <c r="AU34" s="2">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="AV34" s="2">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AY34" s="2">
+        <f t="shared" si="23"/>
+        <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5020,7 +5257,9 @@
       <c r="X35" s="2">
         <v>2821</v>
       </c>
-      <c r="Y35" s="2"/>
+      <c r="Y35">
+        <v>2831</v>
+      </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
@@ -5041,16 +5280,24 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
-      <c r="AT35" s="2">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
+      <c r="AT35" s="2"/>
       <c r="AU35" s="2">
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
+      <c r="AV35" s="2">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="AY35" s="2">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5076,100 +5323,22 @@
       <c r="X36" s="2">
         <v>2689</v>
       </c>
-      <c r="Y36" s="2">
-        <f t="shared" ref="Y36:AR36" si="23">SUM(Y2:Y34)</f>
-        <v>143</v>
-      </c>
-      <c r="Z36" s="2">
+      <c r="Y36">
+        <v>2708</v>
+      </c>
+      <c r="AV36" s="2">
+        <f t="shared" ref="AV36" si="24">Y36-X36</f>
+        <v>19</v>
+      </c>
+      <c r="AY36" s="2">
         <f t="shared" si="23"/>
-        <v>-41</v>
-      </c>
-      <c r="AA36" s="2">
-        <f t="shared" si="23"/>
-        <v>-50</v>
-      </c>
-      <c r="AB36" s="2">
-        <f t="shared" si="23"/>
-        <v>-15</v>
-      </c>
-      <c r="AC36" s="2">
-        <f t="shared" si="23"/>
-        <v>-95</v>
-      </c>
-      <c r="AD36" s="2">
-        <f t="shared" si="23"/>
-        <v>59</v>
-      </c>
-      <c r="AE36" s="2">
-        <f t="shared" si="23"/>
-        <v>-31</v>
-      </c>
-      <c r="AF36" s="2">
-        <f t="shared" si="23"/>
-        <v>-39</v>
-      </c>
-      <c r="AG36" s="2">
-        <f t="shared" si="23"/>
-        <v>27</v>
-      </c>
-      <c r="AH36" s="2">
-        <f t="shared" si="23"/>
-        <v>37</v>
-      </c>
-      <c r="AI36" s="2">
-        <f t="shared" si="23"/>
-        <v>21</v>
-      </c>
-      <c r="AJ36" s="2">
-        <f t="shared" si="23"/>
-        <v>25</v>
-      </c>
-      <c r="AK36" s="2">
-        <f t="shared" si="23"/>
-        <v>46</v>
-      </c>
-      <c r="AL36" s="2">
-        <f t="shared" si="23"/>
-        <v>17</v>
-      </c>
-      <c r="AM36" s="2">
-        <f t="shared" si="23"/>
-        <v>34</v>
-      </c>
-      <c r="AN36" s="2">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="AO36" s="2">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AP36" s="2">
-        <f t="shared" si="23"/>
-        <v>73</v>
-      </c>
-      <c r="AQ36" s="2">
-        <f t="shared" si="23"/>
-        <v>34</v>
-      </c>
-      <c r="AR36" s="2">
-        <f t="shared" si="23"/>
-        <v>29</v>
-      </c>
-      <c r="AS36" s="2">
-        <f>SUM(AS2:AS34)</f>
-        <v>31</v>
-      </c>
-      <c r="AT36" s="2">
-        <f>SUM(AT2:AT34)</f>
-        <v>29</v>
-      </c>
-      <c r="AU36" s="2">
-        <f>SUM(AU2:AU35)</f>
-        <v>377</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5193,9 +5362,12 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37">
+        <v>2644</v>
+      </c>
+      <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5220,8 +5392,9 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5246,8 +5419,100 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
+        <f>SUM(Z2:Z34)</f>
+        <v>143</v>
+      </c>
+      <c r="AA39" s="2">
+        <f>SUM(AA2:AA34)</f>
+        <v>-41</v>
+      </c>
+      <c r="AB39" s="2">
+        <f>SUM(AB2:AB34)</f>
+        <v>-50</v>
+      </c>
+      <c r="AC39" s="2">
+        <f>SUM(AC2:AC34)</f>
+        <v>-15</v>
+      </c>
+      <c r="AD39" s="2">
+        <f>SUM(AD2:AD34)</f>
+        <v>-95</v>
+      </c>
+      <c r="AE39" s="2">
+        <f>SUM(AE2:AE34)</f>
+        <v>59</v>
+      </c>
+      <c r="AF39" s="2">
+        <f>SUM(AF2:AF34)</f>
+        <v>-31</v>
+      </c>
+      <c r="AG39" s="2">
+        <f>SUM(AG2:AG34)</f>
+        <v>-39</v>
+      </c>
+      <c r="AH39" s="2">
+        <f>SUM(AH2:AH34)</f>
+        <v>27</v>
+      </c>
+      <c r="AI39" s="2">
+        <f>SUM(AI2:AI34)</f>
+        <v>37</v>
+      </c>
+      <c r="AJ39" s="2">
+        <f>SUM(AJ2:AJ34)</f>
+        <v>21</v>
+      </c>
+      <c r="AK39" s="2">
+        <f>SUM(AK2:AK34)</f>
+        <v>25</v>
+      </c>
+      <c r="AL39" s="2">
+        <f>SUM(AL2:AL34)</f>
+        <v>46</v>
+      </c>
+      <c r="AM39" s="2">
+        <f>SUM(AM2:AM34)</f>
+        <v>17</v>
+      </c>
+      <c r="AN39" s="2">
+        <f>SUM(AN2:AN34)</f>
+        <v>34</v>
+      </c>
+      <c r="AO39" s="2">
+        <f>SUM(AO2:AO34)</f>
+        <v>31</v>
+      </c>
+      <c r="AP39" s="2">
+        <f>SUM(AP2:AP34)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="2">
+        <f>SUM(AQ2:AQ34)</f>
+        <v>73</v>
+      </c>
+      <c r="AR39" s="2">
+        <f>SUM(AR2:AR34)</f>
+        <v>34</v>
+      </c>
+      <c r="AS39" s="2">
+        <f>SUM(AS2:AS34)</f>
+        <v>29</v>
+      </c>
+      <c r="AT39" s="2">
+        <f>SUM(AT2:AT34)</f>
+        <v>31</v>
+      </c>
+      <c r="AU39" s="2">
+        <f>SUM(AU2:AU34)</f>
+        <v>29</v>
+      </c>
+      <c r="AV39" s="2">
+        <f>SUM(AY2:AY35)</f>
+        <v>405</v>
+      </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5272,8 +5537,9 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5298,8 +5564,9 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5324,22 +5591,27 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="W43"/>
       <c r="X43"/>
+      <c r="Y43"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="W44"/>
       <c r="X44"/>
+      <c r="Y44"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="W45"/>
       <c r="X45"/>
+      <c r="Y45"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="W46"/>
       <c r="X46"/>
+      <c r="Y46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
+++ b/workflow/excess_mortality/data/CBS_weekly_data/CBS_Weekly_Overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>Pub_week_38</t>
+  </si>
+  <si>
+    <t>Pub_week_39</t>
+  </si>
+  <si>
+    <t>Pub_week_40</t>
+  </si>
+  <si>
+    <t>Pub_week_41</t>
+  </si>
+  <si>
+    <t>Pub_week_42</t>
+  </si>
+  <si>
+    <t>Pub_week_43</t>
+  </si>
+  <si>
+    <t>Pub_week_44</t>
+  </si>
+  <si>
+    <t>Pub_week_45</t>
   </si>
 </sst>
 </file>
@@ -466,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY46"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW33" sqref="AW33"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +505,7 @@
     <col min="23" max="25" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,14 +581,35 @@
       <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -643,104 +685,104 @@
       <c r="Y2">
         <v>3103</v>
       </c>
-      <c r="Z2" s="2">
-        <f t="shared" ref="Z2:AV17" si="0">C2-B2</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="AH2" s="2">
-        <f t="shared" si="0"/>
+        <f>C2-B2</f>
         <v>0</v>
       </c>
       <c r="AI2" s="2">
-        <f t="shared" si="0"/>
+        <f>D2-C2</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <f t="shared" si="0"/>
+        <f>E2-D2</f>
         <v>0</v>
       </c>
       <c r="AK2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F2-E2</f>
+        <v>1</v>
       </c>
       <c r="AL2" s="2">
-        <f t="shared" si="0"/>
+        <f>G2-F2</f>
         <v>0</v>
       </c>
       <c r="AM2" s="2">
-        <f t="shared" si="0"/>
+        <f>H2-G2</f>
         <v>0</v>
       </c>
       <c r="AN2" s="2">
-        <f t="shared" si="0"/>
+        <f>I2-H2</f>
         <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <f t="shared" si="0"/>
+        <f>J2-I2</f>
         <v>1</v>
       </c>
       <c r="AP2" s="2">
-        <f t="shared" si="0"/>
+        <f>K2-J2</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="2">
-        <f t="shared" si="0"/>
+        <f>L2-K2</f>
         <v>0</v>
       </c>
       <c r="AR2" s="2">
-        <f t="shared" si="0"/>
+        <f>M2-L2</f>
         <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>N2-M2</f>
+        <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <f t="shared" si="0"/>
+        <f>O2-N2</f>
         <v>0</v>
       </c>
       <c r="AU2" s="2">
-        <f t="shared" si="0"/>
+        <f>P2-O2</f>
         <v>0</v>
       </c>
       <c r="AV2" s="2">
-        <f t="shared" si="0"/>
+        <f>Q2-P2</f>
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <f>R2-Q2</f>
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2">
+        <f>S2-R2</f>
         <v>0</v>
       </c>
       <c r="AY2" s="2">
-        <f>SUM(Z2:AX2)</f>
+        <f>T2-S2</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2">
+        <f>U2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2">
+        <f>V2-U2</f>
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2">
+        <f>W2-V2</f>
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2">
+        <f>X2-W2</f>
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2">
+        <f>Y2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2">
+        <f>SUM(AH2:BF2)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -816,104 +858,104 @@
       <c r="Y3">
         <v>3364</v>
       </c>
-      <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z14" si="1">C3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AA15" si="2">D3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AB16" si="3">E3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC17" si="4">F3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <f t="shared" ref="AD3:AD17" si="5">G3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE19" si="6">H3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF20" si="7">I3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG21" si="8">J3-I3</f>
-        <v>0</v>
-      </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:AH22" si="9">K3-J3</f>
+        <f>C3-B3</f>
         <v>0</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" ref="AI3:AI23" si="10">L3-K3</f>
+        <f>D3-C3</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AJ24" si="11">M3-L3</f>
+        <f>E3-D3</f>
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" ref="AK3:AK25" si="12">N3-M3</f>
+        <f>F3-E3</f>
         <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3:AL26" si="13">O3-N3</f>
+        <f>G3-F3</f>
         <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" ref="AM3:AM27" si="14">P3-O3</f>
+        <f>H3-G3</f>
         <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" ref="AN3:AN28" si="15">Q3-P3</f>
+        <f>I3-H3</f>
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO29" si="16">R3-Q3</f>
+        <f>J3-I3</f>
         <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" ref="AP3:AP30" si="17">S3-R3</f>
+        <f>K3-J3</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" ref="AQ3:AQ31" si="18">T3-S3</f>
+        <f>L3-K3</f>
         <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" ref="AR3:AR32" si="19">U3-T3</f>
+        <f>M3-L3</f>
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" ref="AS3:AS32" si="20">V3-U3</f>
+        <f>N3-M3</f>
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" ref="AT3:AT33" si="21">W3-V3</f>
+        <f>O3-N3</f>
         <v>0</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" ref="AU3:AV35" si="22">X3-W3</f>
+        <f>P3-O3</f>
         <v>0</v>
       </c>
       <c r="AV3" s="2">
-        <f t="shared" si="0"/>
+        <f>Q3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <f>R3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2">
+        <f>S3-R3</f>
         <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <f t="shared" ref="AY3:AY36" si="23">SUM(Z3:AX3)</f>
+        <f>T3-S3</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2">
+        <f>U3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2">
+        <f>V3-U3</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2">
+        <f>W3-V3</f>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="2">
+        <f>X3-W3</f>
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2">
+        <f>Y3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2">
+        <f>SUM(AH3:BF3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -989,104 +1031,104 @@
       <c r="Y4">
         <v>3154</v>
       </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AH4" s="2">
-        <f t="shared" si="9"/>
+        <f>C4-B4</f>
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" si="10"/>
+        <f>D4-C4</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>E4-D4</f>
+        <v>1</v>
       </c>
       <c r="AK4" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>F4-E4</f>
+        <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <f t="shared" si="13"/>
+        <f>G4-F4</f>
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <f t="shared" si="14"/>
+        <f>H4-G4</f>
         <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <f t="shared" si="15"/>
+        <f>I4-H4</f>
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>J4-I4</f>
+        <v>1</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" si="17"/>
+        <f>K4-J4</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" si="18"/>
+        <f>L4-K4</f>
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" si="19"/>
+        <f>M4-L4</f>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>N4-M4</f>
+        <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="21"/>
+        <f>O4-N4</f>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="22"/>
+        <f>P4-O4</f>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="0"/>
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <f>R4-Q4</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>S4-R4</f>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="23"/>
+        <f>T4-S4</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f>U4-T4</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2">
+        <f>V4-U4</f>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2">
+        <f>W4-V4</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2">
+        <f>X4-W4</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <f>Y4-X4</f>
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2">
+        <f>SUM(AH4:BF4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1162,104 +1204,104 @@
       <c r="Y5">
         <v>3045</v>
       </c>
-      <c r="Z5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC5" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AH5" s="2">
-        <f t="shared" si="9"/>
+        <f>C5-B5</f>
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f>D5-C5</f>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>E5-D5</f>
+        <v>1</v>
       </c>
       <c r="AK5" s="2">
-        <f t="shared" si="12"/>
+        <f>F5-E5</f>
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f>G5-F5</f>
+        <v>0</v>
       </c>
       <c r="AM5" s="2">
-        <f t="shared" si="14"/>
+        <f>H5-G5</f>
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <f t="shared" si="15"/>
+        <f>I5-H5</f>
         <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>J5-I5</f>
+        <v>1</v>
       </c>
       <c r="AP5" s="2">
-        <f t="shared" si="17"/>
+        <f>K5-J5</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <f t="shared" si="18"/>
+        <f>L5-K5</f>
         <v>1</v>
       </c>
       <c r="AR5" s="2">
-        <f t="shared" si="19"/>
+        <f>M5-L5</f>
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <f t="shared" si="20"/>
+        <f>N5-M5</f>
         <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>O5-N5</f>
+        <v>1</v>
       </c>
       <c r="AU5" s="2">
-        <f t="shared" si="22"/>
+        <f>P5-O5</f>
         <v>0</v>
       </c>
       <c r="AV5" s="2">
-        <f t="shared" si="0"/>
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
+        <f>R5-Q5</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2">
+        <f>S5-R5</f>
         <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <f t="shared" si="23"/>
+        <f>T5-S5</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2">
+        <f>U5-T5</f>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
+        <f>V5-U5</f>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2">
+        <f>W5-V5</f>
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2">
+        <f>X5-W5</f>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <f>Y5-X5</f>
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2">
+        <f>SUM(AH5:BF5)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1335,104 +1377,104 @@
       <c r="Y6">
         <v>3162</v>
       </c>
-      <c r="Z6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AH6" s="2">
-        <f t="shared" si="9"/>
+        <f>C6-B6</f>
         <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="10"/>
+        <f>D6-C6</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>E6-D6</f>
+        <v>1</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="12"/>
+        <f>F6-E6</f>
         <v>0</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>G6-F6</f>
+        <v>1</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="14"/>
+        <f>H6-G6</f>
         <v>0</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="15"/>
+        <f>I6-H6</f>
         <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>J6-I6</f>
+        <v>1</v>
       </c>
       <c r="AP6" s="2">
-        <f t="shared" si="17"/>
+        <f>K6-J6</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>L6-K6</f>
+        <v>0</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="19"/>
+        <f>M6-L6</f>
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f>N6-M6</f>
+        <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <f t="shared" si="21"/>
+        <f>O6-N6</f>
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <f t="shared" si="22"/>
+        <f>P6-O6</f>
         <v>0</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="0"/>
+        <f>Q6-P6</f>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <f>R6-Q6</f>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2">
+        <f>S6-R6</f>
         <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" si="23"/>
+        <f>T6-S6</f>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="2">
+        <f>U6-T6</f>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <f>V6-U6</f>
+        <v>1</v>
+      </c>
+      <c r="BB6" s="2">
+        <f>W6-V6</f>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <f>X6-W6</f>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <f>Y6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="BL6" s="2">
+        <f>SUM(AH6:BF6)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1508,104 +1550,104 @@
       <c r="Y7">
         <v>3193</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF7" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AH7" s="2">
-        <f t="shared" si="9"/>
+        <f>C7-B7</f>
         <v>1</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="10"/>
+        <f>D7-C7</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="11"/>
+        <f>E7-D7</f>
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>F7-E7</f>
+        <v>1</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="13"/>
+        <f>G7-F7</f>
         <v>0</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="14"/>
+        <f>H7-G7</f>
         <v>1</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>I7-H7</f>
+        <v>1</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="16"/>
+        <f>J7-I7</f>
         <v>0</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>K7-J7</f>
+        <v>1</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="18"/>
+        <f>L7-K7</f>
         <v>0</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="19"/>
+        <f>M7-L7</f>
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" si="20"/>
+        <f>N7-M7</f>
         <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="21"/>
+        <f>O7-N7</f>
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>P7-O7</f>
+        <v>1</v>
       </c>
       <c r="AV7" s="2">
-        <f t="shared" si="0"/>
+        <f>Q7-P7</f>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <f>R7-Q7</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
+        <f>S7-R7</f>
         <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <f t="shared" si="23"/>
+        <f>T7-S7</f>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
+        <f>U7-T7</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <f>V7-U7</f>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
+        <f>W7-V7</f>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2">
+        <f>X7-W7</f>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2">
+        <f>Y7-X7</f>
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2">
+        <f>SUM(AH7:BF7)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1681,104 +1723,104 @@
       <c r="Y8">
         <v>3198</v>
       </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <f t="shared" si="5"/>
+      <c r="AH8" s="2">
+        <f>C8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f>D8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f>E8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <f>F8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <f>G8-F8</f>
         <v>2</v>
       </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="AM8" s="2">
-        <f t="shared" si="14"/>
+        <f>H8-G8</f>
         <v>0</v>
       </c>
       <c r="AN8" s="2">
-        <f t="shared" si="15"/>
+        <f>I8-H8</f>
         <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <f t="shared" si="16"/>
+        <f>J8-I8</f>
         <v>0</v>
       </c>
       <c r="AP8" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>K8-J8</f>
+        <v>1</v>
       </c>
       <c r="AQ8" s="2">
-        <f t="shared" si="18"/>
+        <f>L8-K8</f>
         <v>0</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="19"/>
+        <f>M8-L8</f>
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <f t="shared" si="20"/>
+        <f>N8-M8</f>
         <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <f t="shared" si="21"/>
+        <f>O8-N8</f>
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <f t="shared" si="22"/>
+        <f>P8-O8</f>
         <v>0</v>
       </c>
       <c r="AV8" s="2">
-        <f t="shared" si="0"/>
+        <f>Q8-P8</f>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <f>R8-Q8</f>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <f>S8-R8</f>
         <v>0</v>
       </c>
       <c r="AY8" s="2">
-        <f t="shared" si="23"/>
+        <f>T8-S8</f>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2">
+        <f>U8-T8</f>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <f>V8-U8</f>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <f>W8-V8</f>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <f>X8-W8</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <f>Y8-X8</f>
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2">
+        <f>SUM(AH8:BF8)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1854,104 +1896,104 @@
       <c r="Y9">
         <v>2958</v>
       </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="3"/>
+      <c r="AH9" s="2">
+        <f>C9-B9</f>
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <f>D9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f>E9-D9</f>
         <v>2</v>
       </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="AK9" s="2">
-        <f t="shared" si="12"/>
+        <f>F9-E9</f>
         <v>0</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>G9-F9</f>
+        <v>1</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="14"/>
+        <f>H9-G9</f>
         <v>0</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>I9-H9</f>
+        <v>1</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="16"/>
+        <f>J9-I9</f>
         <v>0</v>
       </c>
       <c r="AP9" s="2">
-        <f t="shared" si="17"/>
+        <f>K9-J9</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>L9-K9</f>
+        <v>0</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="19"/>
+        <f>M9-L9</f>
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <f t="shared" si="20"/>
+        <f>N9-M9</f>
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <f t="shared" si="21"/>
+        <f>O9-N9</f>
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <f t="shared" si="22"/>
+        <f>P9-O9</f>
         <v>0</v>
       </c>
       <c r="AV9" s="2">
-        <f t="shared" si="0"/>
+        <f>Q9-P9</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <f>R9-Q9</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <f>S9-R9</f>
         <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <f t="shared" si="23"/>
+        <f>T9-S9</f>
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="2">
+        <f>U9-T9</f>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <f>V9-U9</f>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <f>W9-V9</f>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <f>X9-W9</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2">
+        <f>Y9-X9</f>
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2">
+        <f>SUM(AH9:BF9)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2027,104 +2069,104 @@
       <c r="Y10">
         <v>3096</v>
       </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH10" s="2">
+        <f>C10-B10</f>
         <v>3</v>
       </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="8"/>
+      <c r="AI10" s="2">
+        <f>D10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f>E10-D10</f>
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2">
+        <f>F10-E10</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="2">
+        <f>G10-F10</f>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="2">
+        <f>H10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <f>I10-H10</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="2">
+        <f>J10-I10</f>
         <v>2</v>
       </c>
-      <c r="AH10" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO10" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AP10" s="2">
-        <f t="shared" si="17"/>
+        <f>K10-J10</f>
         <v>0</v>
       </c>
       <c r="AQ10" s="2">
-        <f t="shared" si="18"/>
+        <f>L10-K10</f>
         <v>1</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="19"/>
+        <f>M10-L10</f>
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <f t="shared" si="20"/>
+        <f>N10-M10</f>
         <v>0</v>
       </c>
       <c r="AT10" s="2">
-        <f t="shared" si="21"/>
+        <f>O10-N10</f>
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>P10-O10</f>
+        <v>1</v>
       </c>
       <c r="AV10" s="2">
-        <f t="shared" si="0"/>
+        <f>Q10-P10</f>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <f>R10-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
+        <f>S10-R10</f>
         <v>0</v>
       </c>
       <c r="AY10" s="2">
-        <f t="shared" si="23"/>
+        <f>T10-S10</f>
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="2">
+        <f>U10-T10</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <f>V10-U10</f>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <f>W10-V10</f>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2">
+        <f>X10-W10</f>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2">
+        <f>Y10-X10</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2">
+        <f>SUM(AH10:BF10)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2200,104 +2242,104 @@
       <c r="Y11">
         <v>3104</v>
       </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH11" s="2">
+        <f>C11-B11</f>
         <v>2</v>
       </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="2"/>
+      <c r="AI11" s="2">
+        <f>D11-C11</f>
         <v>4</v>
       </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="5"/>
+      <c r="AJ11" s="2">
+        <f>E11-D11</f>
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2">
+        <f>F11-E11</f>
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2">
+        <f>G11-F11</f>
         <v>2</v>
       </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF11" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="8"/>
+      <c r="AM11" s="2">
+        <f>H11-G11</f>
+        <v>1</v>
+      </c>
+      <c r="AN11" s="2">
+        <f>I11-H11</f>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2">
+        <f>J11-I11</f>
         <v>-1</v>
       </c>
-      <c r="AH11" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AL11" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AN11" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO11" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
       <c r="AP11" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>K11-J11</f>
+        <v>1</v>
       </c>
       <c r="AQ11" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f>L11-K11</f>
+        <v>0</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="19"/>
+        <f>M11-L11</f>
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>N11-M11</f>
+        <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" si="21"/>
+        <f>O11-N11</f>
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <f t="shared" si="22"/>
+        <f>P11-O11</f>
         <v>1</v>
       </c>
       <c r="AV11" s="2">
-        <f t="shared" si="0"/>
+        <f>Q11-P11</f>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2">
+        <f>R11-Q11</f>
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2">
+        <f>S11-R11</f>
         <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <f t="shared" si="23"/>
+        <f>T11-S11</f>
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="2">
+        <f>U11-T11</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <f>V11-U11</f>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2">
+        <f>W11-V11</f>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2">
+        <f>X11-W11</f>
+        <v>1</v>
+      </c>
+      <c r="BD11" s="2">
+        <f>Y11-X11</f>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2">
+        <f>SUM(AH11:BF11)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2373,104 +2415,104 @@
       <c r="Y12">
         <v>3216</v>
       </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH12" s="2">
+        <f>C12-B12</f>
         <v>8</v>
       </c>
-      <c r="AA12" s="2">
-        <f t="shared" si="2"/>
+      <c r="AI12" s="2">
+        <f>D12-C12</f>
         <v>2</v>
       </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="3"/>
+      <c r="AJ12" s="2">
+        <f>E12-D12</f>
         <v>2</v>
       </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="AK12" s="2">
-        <f t="shared" si="12"/>
+        <f>F12-E12</f>
         <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="13"/>
+        <f>G12-F12</f>
         <v>0</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>H12-G12</f>
+        <v>1</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>I12-H12</f>
+        <v>1</v>
       </c>
       <c r="AO12" s="2">
-        <f t="shared" si="16"/>
+        <f>J12-I12</f>
         <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <f t="shared" si="17"/>
+        <f>K12-J12</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>L12-K12</f>
+        <v>1</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="19"/>
+        <f>M12-L12</f>
         <v>0</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="20"/>
+        <f>N12-M12</f>
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <f t="shared" si="21"/>
+        <f>O12-N12</f>
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <f t="shared" si="22"/>
+        <f>P12-O12</f>
         <v>0</v>
       </c>
       <c r="AV12" s="2">
-        <f t="shared" si="0"/>
+        <f>Q12-P12</f>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <f>R12-Q12</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <f>S12-R12</f>
         <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <f t="shared" si="23"/>
+        <f>T12-S12</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2">
+        <f>U12-T12</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <f>V12-U12</f>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <f>W12-V12</f>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <f>X12-W12</f>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <f>Y12-X12</f>
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2">
+        <f>SUM(AH12:BF12)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2546,104 +2588,104 @@
       <c r="Y13">
         <v>3615</v>
       </c>
-      <c r="Z13" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH13" s="2">
+        <f>C13-B13</f>
         <v>11</v>
       </c>
-      <c r="AA13" s="2">
-        <f t="shared" si="2"/>
+      <c r="AI13" s="2">
+        <f>D13-C13</f>
         <v>7</v>
       </c>
-      <c r="AB13" s="2">
-        <f t="shared" si="3"/>
+      <c r="AJ13" s="2">
+        <f>E13-D13</f>
         <v>3</v>
       </c>
-      <c r="AC13" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK13" s="2">
+        <f>F13-E13</f>
         <v>4</v>
       </c>
-      <c r="AD13" s="2">
-        <f t="shared" si="5"/>
+      <c r="AL13" s="2">
+        <f>G13-F13</f>
         <v>6</v>
       </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <f t="shared" si="7"/>
+      <c r="AM13" s="2">
+        <f>H13-G13</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>I13-H13</f>
         <v>3</v>
       </c>
-      <c r="AG13" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AM13" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
       <c r="AO13" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>J13-I13</f>
+        <v>0</v>
       </c>
       <c r="AP13" s="2">
-        <f t="shared" si="17"/>
+        <f>K13-J13</f>
         <v>0</v>
       </c>
       <c r="AQ13" s="2">
-        <f t="shared" si="18"/>
+        <f>L13-K13</f>
         <v>0</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="19"/>
+        <f>M13-L13</f>
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <f t="shared" si="20"/>
+        <f>N13-M13</f>
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>O13-N13</f>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f>P13-O13</f>
+        <v>0</v>
       </c>
       <c r="AV13" s="2">
-        <f t="shared" si="0"/>
+        <f>Q13-P13</f>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="2">
+        <f>R13-Q13</f>
+        <v>1</v>
+      </c>
+      <c r="AX13" s="2">
+        <f>S13-R13</f>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
+        <f>T13-S13</f>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <f>U13-T13</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <f>V13-U13</f>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2">
+        <f>W13-V13</f>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2">
+        <f>X13-W13</f>
+        <v>1</v>
+      </c>
+      <c r="BD13" s="2">
+        <f>Y13-X13</f>
         <v>2</v>
       </c>
-      <c r="AY13" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL13" s="2">
+        <f>SUM(AH13:BF13)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2719,104 +2761,104 @@
       <c r="Y14">
         <v>4458</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" si="1"/>
+      <c r="AH14" s="2">
+        <f>C14-B14</f>
         <v>117</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="2"/>
+      <c r="AI14" s="2">
+        <f>D14-C14</f>
         <v>7</v>
       </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="3"/>
+      <c r="AJ14" s="2">
+        <f>E14-D14</f>
         <v>6</v>
       </c>
-      <c r="AC14" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK14" s="2">
+        <f>F14-E14</f>
         <v>3</v>
       </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="5"/>
+      <c r="AL14" s="2">
+        <f>G14-F14</f>
         <v>4</v>
       </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="6"/>
+      <c r="AM14" s="2">
+        <f>H14-G14</f>
         <v>2</v>
       </c>
-      <c r="AF14" s="2">
-        <f t="shared" si="7"/>
+      <c r="AN14" s="2">
+        <f>I14-H14</f>
         <v>2</v>
       </c>
-      <c r="AG14" s="2">
-        <f t="shared" si="8"/>
+      <c r="AO14" s="2">
+        <f>J14-I14</f>
         <v>3</v>
       </c>
-      <c r="AH14" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="11"/>
+      <c r="AP14" s="2">
+        <f>K14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
+        <f>L14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <f>M14-L14</f>
         <v>4</v>
       </c>
-      <c r="AK14" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO14" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="AS14" s="2">
-        <f t="shared" si="20"/>
+        <f>N14-M14</f>
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <f t="shared" si="21"/>
+        <f>O14-N14</f>
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>P14-O14</f>
+        <v>1</v>
       </c>
       <c r="AV14" s="2">
-        <f t="shared" si="0"/>
+        <f>Q14-P14</f>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="2">
+        <f>R14-Q14</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="2">
+        <f>S14-R14</f>
         <v>0</v>
       </c>
       <c r="AY14" s="2">
-        <f t="shared" si="23"/>
+        <f>T14-S14</f>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2">
+        <f>U14-T14</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <f>V14-U14</f>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="2">
+        <f>W14-V14</f>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <f>X14-W14</f>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="2">
+        <f>Y14-X14</f>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="2">
+        <f>SUM(AH14:BF14)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2890,101 +2932,101 @@
       <c r="Y15">
         <v>5084</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <f t="shared" si="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2">
+        <f>D15-C15</f>
         <v>-61</v>
       </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="3"/>
+      <c r="AJ15" s="2">
+        <f>E15-D15</f>
         <v>31</v>
       </c>
-      <c r="AC15" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK15" s="2">
+        <f>F15-E15</f>
         <v>5</v>
       </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="5"/>
+      <c r="AL15" s="2">
+        <f>G15-F15</f>
         <v>5</v>
       </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AG15" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <f t="shared" si="10"/>
+      <c r="AM15" s="2">
+        <f>H15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>I15-H15</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="2">
+        <f>J15-I15</f>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <f>K15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <f>L15-K15</f>
         <v>2</v>
       </c>
-      <c r="AJ15" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AK15" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
       <c r="AR15" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>M15-L15</f>
+        <v>1</v>
       </c>
       <c r="AS15" s="2">
-        <f t="shared" si="20"/>
+        <f>N15-M15</f>
         <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <f t="shared" si="21"/>
+        <f>O15-N15</f>
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>P15-O15</f>
+        <v>1</v>
       </c>
       <c r="AV15" s="2">
-        <f t="shared" si="0"/>
+        <f>Q15-P15</f>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2">
+        <f>R15-Q15</f>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="2">
+        <f>S15-R15</f>
         <v>0</v>
       </c>
       <c r="AY15" s="2">
-        <f t="shared" si="23"/>
+        <f>T15-S15</f>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2">
+        <f>U15-T15</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2">
+        <f>V15-U15</f>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2">
+        <f>W15-V15</f>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="2">
+        <f>X15-W15</f>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2">
+        <f>Y15-X15</f>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2">
+        <f>SUM(AH15:BF15)</f>
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3056,98 +3098,98 @@
       <c r="Y16">
         <v>4978</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <f t="shared" si="3"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2">
+        <f>E16-D16</f>
         <v>-99</v>
       </c>
-      <c r="AC16" s="2">
-        <f t="shared" si="4"/>
+      <c r="AK16" s="2">
+        <f>F16-E16</f>
         <v>18</v>
       </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="5"/>
+      <c r="AL16" s="2">
+        <f>G16-F16</f>
         <v>12</v>
       </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="7"/>
+      <c r="AM16" s="2">
+        <f>H16-G16</f>
+        <v>1</v>
+      </c>
+      <c r="AN16" s="2">
+        <f>I16-H16</f>
         <v>3</v>
       </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI16" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AL16" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="AO16" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>J16-I16</f>
+        <v>1</v>
       </c>
       <c r="AP16" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>K16-J16</f>
+        <v>1</v>
       </c>
       <c r="AQ16" s="2">
-        <f t="shared" si="18"/>
+        <f>L16-K16</f>
         <v>0</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="19"/>
+        <f>M16-L16</f>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <f>N16-M16</f>
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2">
+        <f>O16-N16</f>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2">
+        <f>P16-O16</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="2">
+        <f>Q16-P16</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <f>R16-Q16</f>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="2">
+        <f>S16-R16</f>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2">
+        <f>T16-S16</f>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="2">
+        <f>U16-T16</f>
         <v>2</v>
       </c>
-      <c r="AS16" s="2">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AT16" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU16" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AV16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AY16" s="2">
-        <f t="shared" si="23"/>
+      <c r="BA16" s="2">
+        <f>V16-U16</f>
+        <v>1</v>
+      </c>
+      <c r="BB16" s="2">
+        <f>W16-V16</f>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2">
+        <f>X16-W16</f>
+        <v>1</v>
+      </c>
+      <c r="BD16" s="2">
+        <f>Y16-X16</f>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2">
+        <f>SUM(AH16:BF16)</f>
         <v>-58</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3217,95 +3259,95 @@
       <c r="Y17">
         <v>4299</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2">
-        <f t="shared" si="4"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2">
+        <f>F17-E17</f>
         <v>-49</v>
       </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="5"/>
+      <c r="AL17" s="2">
+        <f>G17-F17</f>
         <v>18</v>
       </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2">
-        <f t="shared" si="7"/>
+      <c r="AM17" s="2">
+        <f>H17-G17</f>
+        <v>1</v>
+      </c>
+      <c r="AN17" s="2">
+        <f>I17-H17</f>
         <v>5</v>
       </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="8"/>
+      <c r="AO17" s="2">
+        <f>J17-I17</f>
         <v>5</v>
       </c>
-      <c r="AH17" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2">
-        <f t="shared" si="11"/>
+      <c r="AP17" s="2">
+        <f>K17-J17</f>
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="2">
+        <f>L17-K17</f>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <f>M17-L17</f>
         <v>3</v>
       </c>
-      <c r="AK17" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN17" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AP17" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR17" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
       <c r="AS17" s="2">
-        <f t="shared" si="20"/>
+        <f>N17-M17</f>
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <f t="shared" si="21"/>
+        <f>O17-N17</f>
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <f t="shared" si="22"/>
+        <f>P17-O17</f>
         <v>0</v>
       </c>
       <c r="AV17" s="2">
-        <f t="shared" si="0"/>
+        <f>Q17-P17</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <f>R17-Q17</f>
+        <v>1</v>
+      </c>
+      <c r="AX17" s="2">
+        <f>S17-R17</f>
         <v>0</v>
       </c>
       <c r="AY17" s="2">
-        <f t="shared" si="23"/>
+        <f>T17-S17</f>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f>U17-T17</f>
+        <v>1</v>
+      </c>
+      <c r="BA17" s="2">
+        <f>V17-U17</f>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2">
+        <f>W17-V17</f>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <f>X17-W17</f>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <f>Y17-X17</f>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <f>SUM(AH17:BF17)</f>
         <v>-14</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3373,92 +3415,92 @@
       <c r="Y18">
         <v>3906</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2">
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2">
         <f>G18-F18</f>
         <v>-147</v>
       </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="6"/>
+      <c r="AM18" s="2">
+        <f>H18-G18</f>
         <v>6</v>
       </c>
-      <c r="AF18" s="2">
-        <f t="shared" si="7"/>
+      <c r="AN18" s="2">
+        <f>I18-H18</f>
         <v>4</v>
       </c>
-      <c r="AG18" s="2">
-        <f t="shared" si="8"/>
+      <c r="AO18" s="2">
+        <f>J18-I18</f>
         <v>5</v>
       </c>
-      <c r="AH18" s="2">
-        <f t="shared" si="9"/>
+      <c r="AP18" s="2">
+        <f>K18-J18</f>
         <v>2</v>
       </c>
-      <c r="AI18" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AL18" s="2">
-        <f t="shared" si="13"/>
+      <c r="AQ18" s="2">
+        <f>L18-K18</f>
+        <v>1</v>
+      </c>
+      <c r="AR18" s="2">
+        <f>M18-L18</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <f>N18-M18</f>
+        <v>1</v>
+      </c>
+      <c r="AT18" s="2">
+        <f>O18-N18</f>
         <v>10</v>
       </c>
-      <c r="AM18" s="2">
-        <f t="shared" si="14"/>
+      <c r="AU18" s="2">
+        <f>P18-O18</f>
         <v>-7</v>
       </c>
-      <c r="AN18" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <f t="shared" si="16"/>
+      <c r="AV18" s="2">
+        <f>Q18-P18</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2">
+        <f>R18-Q18</f>
         <v>-1</v>
       </c>
-      <c r="AP18" s="2">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AS18" s="2">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV18" s="2">
-        <f t="shared" si="22"/>
+      <c r="AX18" s="2">
+        <f>S18-R18</f>
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <f t="shared" si="23"/>
+        <f>T18-S18</f>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f>U18-T18</f>
+        <v>1</v>
+      </c>
+      <c r="BA18" s="2">
+        <f>V18-U18</f>
+        <v>1</v>
+      </c>
+      <c r="BB18" s="2">
+        <f>W18-V18</f>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <f>X18-W18</f>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2">
+        <f>Y18-X18</f>
+        <v>1</v>
+      </c>
+      <c r="BL18" s="2">
+        <f>SUM(AH18:BF18)</f>
         <v>-122</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3524,89 +3566,89 @@
       <c r="Y19">
         <v>3378</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <f t="shared" si="6"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2">
+        <f>H19-G19</f>
         <v>46</v>
       </c>
-      <c r="AF19" s="2">
-        <f t="shared" si="7"/>
+      <c r="AN19" s="2">
+        <f>I19-H19</f>
         <v>20</v>
       </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="8"/>
+      <c r="AO19" s="2">
+        <f>J19-I19</f>
         <v>5</v>
       </c>
-      <c r="AH19" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AI19" s="2">
-        <f t="shared" si="10"/>
+      <c r="AP19" s="2">
+        <f>K19-J19</f>
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2">
+        <f>L19-K19</f>
         <v>2</v>
       </c>
-      <c r="AJ19" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AK19" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AM19" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO19" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AP19" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
       <c r="AR19" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>M19-L19</f>
+        <v>1</v>
       </c>
       <c r="AS19" s="2">
-        <f t="shared" si="20"/>
+        <f>N19-M19</f>
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>O19-N19</f>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <f t="shared" si="22"/>
+        <f>P19-O19</f>
         <v>0</v>
       </c>
       <c r="AV19" s="2">
-        <f t="shared" si="22"/>
+        <f>Q19-P19</f>
+        <v>1</v>
+      </c>
+      <c r="AW19" s="2">
+        <f>R19-Q19</f>
+        <v>1</v>
+      </c>
+      <c r="AX19" s="2">
+        <f>S19-R19</f>
         <v>0</v>
       </c>
       <c r="AY19" s="2">
-        <f t="shared" si="23"/>
+        <f>T19-S19</f>
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <f>U19-T19</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="2">
+        <f>V19-U19</f>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2">
+        <f>W19-V19</f>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2">
+        <f>X19-W19</f>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <f>Y19-X19</f>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="2">
+        <f>SUM(AH19:BF19)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3670,86 +3712,86 @@
       <c r="Y20">
         <v>2982</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <f t="shared" si="7"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2">
+        <f>I20-H20</f>
         <v>-74</v>
       </c>
-      <c r="AG20" s="2">
-        <f t="shared" si="8"/>
+      <c r="AO20" s="2">
+        <f>J20-I20</f>
         <v>13</v>
       </c>
-      <c r="AH20" s="2">
-        <f t="shared" si="9"/>
+      <c r="AP20" s="2">
+        <f>K20-J20</f>
         <v>2</v>
       </c>
-      <c r="AI20" s="2">
-        <f t="shared" si="10"/>
+      <c r="AQ20" s="2">
+        <f>L20-K20</f>
         <v>3</v>
       </c>
-      <c r="AJ20" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AK20" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="13"/>
+      <c r="AR20" s="2">
+        <f>M20-L20</f>
+        <v>1</v>
+      </c>
+      <c r="AS20" s="2">
+        <f>N20-M20</f>
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2">
+        <f>O20-N20</f>
         <v>2</v>
       </c>
-      <c r="AM20" s="2">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AN20" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AP20" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR20" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AS20" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT20" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
       <c r="AU20" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>P20-O20</f>
+        <v>1</v>
       </c>
       <c r="AV20" s="2">
-        <f t="shared" si="22"/>
+        <f>Q20-P20</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <f>R20-Q20</f>
+        <v>1</v>
+      </c>
+      <c r="AX20" s="2">
+        <f>S20-R20</f>
         <v>0</v>
       </c>
       <c r="AY20" s="2">
-        <f t="shared" si="23"/>
+        <f>T20-S20</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2">
+        <f>U20-T20</f>
+        <v>1</v>
+      </c>
+      <c r="BA20" s="2">
+        <f>V20-U20</f>
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
+        <f>W20-V20</f>
+        <v>1</v>
+      </c>
+      <c r="BC20" s="2">
+        <f>X20-W20</f>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <f>Y20-X20</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="2">
+        <f>SUM(AH20:BF20)</f>
         <v>-48</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3811,83 +3853,83 @@
       <c r="Y21">
         <v>2773</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2">
-        <f t="shared" si="8"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2">
+        <f>J21-I21</f>
         <v>-77</v>
       </c>
-      <c r="AH21" s="2">
-        <f t="shared" si="9"/>
+      <c r="AP21" s="2">
+        <f>K21-J21</f>
         <v>4</v>
       </c>
-      <c r="AI21" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="2">
-        <f t="shared" si="11"/>
+      <c r="AQ21" s="2">
+        <f>L21-K21</f>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="2">
+        <f>M21-L21</f>
         <v>2</v>
       </c>
-      <c r="AK21" s="2">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="13"/>
+      <c r="AS21" s="2">
+        <f>N21-M21</f>
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
+        <f>O21-N21</f>
         <v>3</v>
       </c>
-      <c r="AM21" s="2">
-        <f t="shared" si="14"/>
+      <c r="AU21" s="2">
+        <f>P21-O21</f>
         <v>4</v>
       </c>
-      <c r="AN21" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO21" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS21" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT21" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
       <c r="AV21" s="2">
-        <f t="shared" si="22"/>
+        <f>Q21-P21</f>
+        <v>1</v>
+      </c>
+      <c r="AW21" s="2">
+        <f>R21-Q21</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2">
+        <f>S21-R21</f>
         <v>0</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="23"/>
+        <f>T21-S21</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="2">
+        <f>U21-T21</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="2">
+        <f>V21-U21</f>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2">
+        <f>W21-V21</f>
+        <v>1</v>
+      </c>
+      <c r="BC21" s="2">
+        <f>X21-W21</f>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <f>Y21-X21</f>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="2">
+        <f>SUM(AH21:BF21)</f>
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3947,80 +3989,80 @@
       <c r="Y22">
         <v>2770</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2">
-        <f t="shared" si="9"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2">
+        <f>K22-J22</f>
         <v>13</v>
       </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="10"/>
+      <c r="AQ22" s="2">
+        <f>L22-K22</f>
         <v>10</v>
       </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="12"/>
+      <c r="AR22" s="2">
+        <f>M22-L22</f>
+        <v>1</v>
+      </c>
+      <c r="AS22" s="2">
+        <f>N22-M22</f>
         <v>2</v>
       </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM22" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AP22" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="2">
-        <f t="shared" si="18"/>
+      <c r="AT22" s="2">
+        <f>O22-N22</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="2">
+        <f>P22-O22</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2">
+        <f>Q22-P22</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2">
+        <f>R22-Q22</f>
+        <v>1</v>
+      </c>
+      <c r="AX22" s="2">
+        <f>S22-R22</f>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="2">
+        <f>T22-S22</f>
         <v>3</v>
       </c>
-      <c r="AR22" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS22" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU22" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AY22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AZ22" s="2">
+        <f>U22-T22</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <f>V22-U22</f>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <f>W22-V22</f>
+        <v>1</v>
+      </c>
+      <c r="BC22" s="2">
+        <f>X22-W22</f>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <f>Y22-X22</f>
+        <v>1</v>
+      </c>
+      <c r="BL22" s="2">
+        <f>SUM(AH22:BF22)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4078,77 +4120,77 @@
       <c r="Y23">
         <v>2725</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="2">
-        <f t="shared" si="10"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2">
+        <f>L23-K23</f>
         <v>15</v>
       </c>
-      <c r="AJ23" s="2">
-        <f t="shared" si="11"/>
+      <c r="AR23" s="2">
+        <f>M23-L23</f>
         <v>2</v>
       </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="12"/>
+      <c r="AS23" s="2">
+        <f>N23-M23</f>
         <v>3</v>
       </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AM23" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN23" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO23" s="2">
-        <f t="shared" si="16"/>
+      <c r="AT23" s="2">
+        <f>O23-N23</f>
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2">
+        <f>P23-O23</f>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="2">
+        <f>Q23-P23</f>
+        <v>1</v>
+      </c>
+      <c r="AW23" s="2">
+        <f>R23-Q23</f>
         <v>3</v>
       </c>
-      <c r="AP23" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2">
-        <f t="shared" si="18"/>
+      <c r="AX23" s="2">
+        <f>S23-R23</f>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="2">
+        <f>T23-S23</f>
         <v>4</v>
       </c>
-      <c r="AR23" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS23" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV23" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="23"/>
+      <c r="AZ23" s="2">
+        <f>U23-T23</f>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="2">
+        <f>V23-U23</f>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="2">
+        <f>W23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="2">
+        <f>X23-W23</f>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2">
+        <f>Y23-X23</f>
+        <v>1</v>
+      </c>
+      <c r="BL23" s="2">
+        <f>SUM(AH23:BF23)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4204,74 +4246,74 @@
       <c r="Y24">
         <v>2682</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="2">
-        <f t="shared" si="11"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2">
+        <f>M24-L24</f>
         <v>6</v>
       </c>
-      <c r="AK24" s="2">
-        <f t="shared" si="12"/>
+      <c r="AS24" s="2">
+        <f>N24-M24</f>
         <v>2</v>
       </c>
-      <c r="AL24" s="2">
-        <f t="shared" si="13"/>
+      <c r="AT24" s="2">
+        <f>O24-N24</f>
         <v>9</v>
       </c>
-      <c r="AM24" s="2">
-        <f t="shared" si="14"/>
+      <c r="AU24" s="2">
+        <f>P24-O24</f>
         <v>2</v>
       </c>
-      <c r="AN24" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AO24" s="2">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AP24" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AR24" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AS24" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT24" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU24" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
       <c r="AV24" s="2">
-        <f t="shared" si="22"/>
+        <f>Q24-P24</f>
+        <v>1</v>
+      </c>
+      <c r="AW24" s="2">
+        <f>R24-Q24</f>
+        <v>1</v>
+      </c>
+      <c r="AX24" s="2">
+        <f>S24-R24</f>
         <v>0</v>
       </c>
       <c r="AY24" s="2">
-        <f t="shared" si="23"/>
+        <f>T24-S24</f>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="2">
+        <f>U24-T24</f>
+        <v>1</v>
+      </c>
+      <c r="BA24" s="2">
+        <f>V24-U24</f>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="2">
+        <f>W24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="2">
+        <f>X24-W24</f>
+        <v>1</v>
+      </c>
+      <c r="BD24" s="2">
+        <f>Y24-X24</f>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="2">
+        <f>SUM(AH24:BF24)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4325,71 +4367,71 @@
       <c r="Y25">
         <v>2691</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="2">
-        <f t="shared" si="12"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2">
+        <f>N25-M25</f>
         <v>12</v>
       </c>
-      <c r="AL25" s="2">
-        <f t="shared" si="13"/>
+      <c r="AT25" s="2">
+        <f>O25-N25</f>
         <v>6</v>
       </c>
-      <c r="AM25" s="2">
-        <f t="shared" si="14"/>
+      <c r="AU25" s="2">
+        <f>P25-O25</f>
         <v>3</v>
       </c>
-      <c r="AN25" s="2">
-        <f t="shared" si="15"/>
+      <c r="AV25" s="2">
+        <f>Q25-P25</f>
         <v>3</v>
       </c>
-      <c r="AO25" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="2">
-        <f t="shared" si="18"/>
+      <c r="AW25" s="2">
+        <f>R25-Q25</f>
+        <v>0</v>
+      </c>
+      <c r="AX25" s="2">
+        <f>S25-R25</f>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="2">
+        <f>T25-S25</f>
         <v>2</v>
       </c>
-      <c r="AR25" s="2">
-        <f t="shared" si="19"/>
+      <c r="AZ25" s="2">
+        <f>U25-T25</f>
         <v>3</v>
       </c>
-      <c r="AS25" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AY25" s="2">
-        <f t="shared" si="23"/>
+      <c r="BA25" s="2">
+        <f>V25-U25</f>
+        <v>0</v>
+      </c>
+      <c r="BB25" s="2">
+        <f>W25-V25</f>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="2">
+        <f>X25-W25</f>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2">
+        <f>Y25-X25</f>
+        <v>0</v>
+      </c>
+      <c r="BL25" s="2">
+        <f>SUM(AH25:BF25)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4441,68 +4483,68 @@
       <c r="Y26">
         <v>2691</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="2">
-        <f t="shared" si="13"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2">
+        <f>O26-N26</f>
         <v>12</v>
       </c>
-      <c r="AM26" s="2">
-        <f t="shared" si="14"/>
+      <c r="AU26" s="2">
+        <f>P26-O26</f>
         <v>2</v>
       </c>
-      <c r="AN26" s="2">
-        <f t="shared" si="15"/>
+      <c r="AV26" s="2">
+        <f>Q26-P26</f>
         <v>4</v>
       </c>
-      <c r="AO26" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="2">
-        <f t="shared" si="18"/>
+      <c r="AW26" s="2">
+        <f>R26-Q26</f>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="2">
+        <f>S26-R26</f>
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2">
+        <f>T26-S26</f>
         <v>5</v>
       </c>
-      <c r="AR26" s="2">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AS26" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU26" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV26" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AY26" s="2">
-        <f t="shared" si="23"/>
+      <c r="AZ26" s="2">
+        <f>U26-T26</f>
+        <v>1</v>
+      </c>
+      <c r="BA26" s="2">
+        <f>V26-U26</f>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <f>W26-V26</f>
+        <v>1</v>
+      </c>
+      <c r="BC26" s="2">
+        <f>X26-W26</f>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="2">
+        <f>Y26-X26</f>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <f>SUM(AH26:BF26)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4552,65 +4594,65 @@
       <c r="Y27">
         <v>2659</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
-      <c r="AM27" s="2">
-        <f t="shared" si="14"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2">
+        <f>P27-O27</f>
         <v>7</v>
       </c>
-      <c r="AN27" s="2">
-        <f t="shared" si="15"/>
+      <c r="AV27" s="2">
+        <f>Q27-P27</f>
         <v>4</v>
       </c>
-      <c r="AO27" s="2">
-        <f t="shared" si="16"/>
+      <c r="AW27" s="2">
+        <f>R27-Q27</f>
         <v>3</v>
       </c>
-      <c r="AP27" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="2">
-        <f t="shared" si="18"/>
+      <c r="AX27" s="2">
+        <f>S27-R27</f>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2">
+        <f>T27-S27</f>
         <v>3</v>
       </c>
-      <c r="AR27" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS27" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU27" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV27" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AY27" s="2">
-        <f t="shared" si="23"/>
+      <c r="AZ27" s="2">
+        <f>U27-T27</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="2">
+        <f>V27-U27</f>
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <f>W27-V27</f>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2">
+        <f>X27-W27</f>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2">
+        <f>Y27-X27</f>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <f>SUM(AH27:BF27)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4658,62 +4700,62 @@
       <c r="Y28">
         <v>2636</v>
       </c>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
-      <c r="AN28" s="2">
-        <f t="shared" si="15"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2">
+        <f>Q28-P28</f>
         <v>16</v>
       </c>
-      <c r="AO28" s="2">
-        <f t="shared" si="16"/>
+      <c r="AW28" s="2">
+        <f>R28-Q28</f>
         <v>3</v>
       </c>
-      <c r="AP28" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="2">
-        <f t="shared" si="18"/>
+      <c r="AX28" s="2">
+        <f>S28-R28</f>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="2">
+        <f>T28-S28</f>
         <v>7</v>
       </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS28" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <f t="shared" si="21"/>
+      <c r="AZ28" s="2">
+        <f>U28-T28</f>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="2">
+        <f>V28-U28</f>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="2">
+        <f>W28-V28</f>
         <v>2</v>
       </c>
-      <c r="AU28" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV28" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AY28" s="2">
-        <f t="shared" si="23"/>
+      <c r="BC28" s="2">
+        <f>X28-W28</f>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2">
+        <f>Y28-X28</f>
+        <v>1</v>
+      </c>
+      <c r="BL28" s="2">
+        <f>SUM(AH28:BF28)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4759,14 +4801,6 @@
       <c r="Y29">
         <v>2614</v>
       </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
@@ -4774,44 +4808,52 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
-      <c r="AO29" s="2">
-        <f t="shared" si="16"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2">
+        <f>R29-Q29</f>
         <v>15</v>
       </c>
-      <c r="AP29" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="2">
-        <f t="shared" si="18"/>
+      <c r="AX29" s="2">
+        <f>S29-R29</f>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="2">
+        <f>T29-S29</f>
         <v>9</v>
       </c>
-      <c r="AR29" s="2">
-        <f t="shared" si="19"/>
+      <c r="AZ29" s="2">
+        <f>U29-T29</f>
         <v>3</v>
       </c>
-      <c r="AS29" s="2">
-        <f t="shared" si="20"/>
+      <c r="BA29" s="2">
+        <f>V29-U29</f>
         <v>2</v>
       </c>
-      <c r="AT29" s="2">
-        <f t="shared" si="21"/>
+      <c r="BB29" s="2">
+        <f>W29-V29</f>
         <v>2</v>
       </c>
-      <c r="AU29" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AV29" s="2">
-        <f t="shared" si="22"/>
+      <c r="BC29" s="2">
+        <f>X29-W29</f>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="2">
+        <f>Y29-X29</f>
         <v>2</v>
       </c>
-      <c r="AY29" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL29" s="2">
+        <f>SUM(AH29:BF29)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4855,14 +4897,6 @@
       <c r="Y30">
         <v>2524</v>
       </c>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
@@ -4871,40 +4905,48 @@
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
-      <c r="AP30" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="2">
-        <f t="shared" si="18"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2">
+        <f>S30-R30</f>
+        <v>0</v>
+      </c>
+      <c r="AY30" s="2">
+        <f>T30-S30</f>
         <v>18</v>
       </c>
-      <c r="AR30" s="2">
-        <f t="shared" si="19"/>
+      <c r="AZ30" s="2">
+        <f>U30-T30</f>
         <v>3</v>
       </c>
-      <c r="AS30" s="2">
-        <f t="shared" si="20"/>
+      <c r="BA30" s="2">
+        <f>V30-U30</f>
         <v>2</v>
       </c>
-      <c r="AT30" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU30" s="2">
-        <f t="shared" si="22"/>
+      <c r="BB30" s="2">
+        <f>W30-V30</f>
+        <v>1</v>
+      </c>
+      <c r="BC30" s="2">
+        <f>X30-W30</f>
         <v>3</v>
       </c>
-      <c r="AV30" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AY30" s="2">
-        <f t="shared" si="23"/>
+      <c r="BD30" s="2">
+        <f>Y30-X30</f>
+        <v>1</v>
+      </c>
+      <c r="BL30" s="2">
+        <f>SUM(AH30:BF30)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4946,14 +4988,6 @@
       <c r="Y31">
         <v>2669</v>
       </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
@@ -4963,36 +4997,44 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
-      <c r="AQ31" s="2">
-        <f t="shared" si="18"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2">
+        <f>T31-S31</f>
         <v>16</v>
       </c>
-      <c r="AR31" s="2">
-        <f t="shared" si="19"/>
+      <c r="AZ31" s="2">
+        <f>U31-T31</f>
         <v>5</v>
       </c>
-      <c r="AS31" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AT31" s="2">
-        <f t="shared" si="21"/>
+      <c r="BA31" s="2">
+        <f>V31-U31</f>
+        <v>0</v>
+      </c>
+      <c r="BB31" s="2">
+        <f>W31-V31</f>
         <v>2</v>
       </c>
-      <c r="AU31" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AV31" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AY31" s="2">
-        <f t="shared" si="23"/>
+      <c r="BC31" s="2">
+        <f>X31-W31</f>
+        <v>1</v>
+      </c>
+      <c r="BD31" s="2">
+        <f>Y31-X31</f>
+        <v>0</v>
+      </c>
+      <c r="BL31" s="2">
+        <f>SUM(AH31:BF31)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5032,14 +5074,6 @@
       <c r="Y32">
         <v>2655</v>
       </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
@@ -5050,32 +5084,40 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
-      <c r="AR32" s="2">
-        <f t="shared" si="19"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2">
+        <f>U32-T32</f>
         <v>13</v>
       </c>
-      <c r="AS32" s="2">
-        <f t="shared" si="20"/>
+      <c r="BA32" s="2">
+        <f>V32-U32</f>
         <v>7</v>
       </c>
-      <c r="AT32" s="2">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AU32" s="2">
-        <f t="shared" si="22"/>
+      <c r="BB32" s="2">
+        <f>W32-V32</f>
+        <v>1</v>
+      </c>
+      <c r="BC32" s="2">
+        <f>X32-W32</f>
         <v>10</v>
       </c>
-      <c r="AV32" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD32" s="2">
+        <f>Y32-X32</f>
         <v>4</v>
       </c>
-      <c r="AY32" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL32" s="2">
+        <f>SUM(AH32:BF32)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5113,14 +5155,6 @@
       <c r="Y33">
         <v>2629</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
@@ -5132,28 +5166,36 @@
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
-      <c r="AS33" s="2">
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2">
         <f>V33-U33</f>
         <v>14</v>
       </c>
-      <c r="AT33" s="2">
-        <f t="shared" si="21"/>
+      <c r="BB33" s="2">
+        <f>W33-V33</f>
         <v>2</v>
       </c>
-      <c r="AU33" s="2">
-        <f t="shared" si="22"/>
+      <c r="BC33" s="2">
+        <f>X33-W33</f>
         <v>3</v>
       </c>
-      <c r="AV33" s="2">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AY33" s="2">
-        <f t="shared" si="23"/>
+      <c r="BD33" s="2">
+        <f>Y33-X33</f>
+        <v>1</v>
+      </c>
+      <c r="BL33" s="2">
+        <f>SUM(AH33:BF33)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5189,14 +5231,6 @@
       <c r="Y34">
         <v>3201</v>
       </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
@@ -5209,24 +5243,32 @@
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
-      <c r="AT34" s="2">
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2">
         <f>W34-V34</f>
         <v>17</v>
       </c>
-      <c r="AU34" s="2">
-        <f t="shared" si="22"/>
+      <c r="BC34" s="2">
+        <f>X34-W34</f>
         <v>8</v>
       </c>
-      <c r="AV34" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD34" s="2">
+        <f>Y34-X34</f>
         <v>4</v>
       </c>
-      <c r="AY34" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL34" s="2">
+        <f>SUM(AH34:BF34)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5260,14 +5302,6 @@
       <c r="Y35">
         <v>2831</v>
       </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
@@ -5281,20 +5315,28 @@
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="2">
-        <f t="shared" si="22"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2">
+        <f>X35-W35</f>
         <v>11</v>
       </c>
-      <c r="AV35" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD35" s="2">
+        <f>Y35-X35</f>
         <v>10</v>
       </c>
-      <c r="AY35" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL35" s="2">
+        <f>SUM(AH35:BF35)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5326,16 +5368,16 @@
       <c r="Y36">
         <v>2708</v>
       </c>
-      <c r="AV36" s="2">
-        <f t="shared" ref="AV36" si="24">Y36-X36</f>
+      <c r="BD36" s="2">
+        <f>Y36-X36</f>
         <v>19</v>
       </c>
-      <c r="AY36" s="2">
-        <f t="shared" si="23"/>
+      <c r="BL36" s="2">
+        <f>SUM(AH36:BF36)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5365,9 +5407,9 @@
       <c r="Y37">
         <v>2644</v>
       </c>
-      <c r="Z37" s="2"/>
+      <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5392,9 +5434,9 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="AH38" s="2"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5419,100 +5461,8 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
-        <f>SUM(Z2:Z34)</f>
-        <v>143</v>
-      </c>
-      <c r="AA39" s="2">
-        <f>SUM(AA2:AA34)</f>
-        <v>-41</v>
-      </c>
-      <c r="AB39" s="2">
-        <f>SUM(AB2:AB34)</f>
-        <v>-50</v>
-      </c>
-      <c r="AC39" s="2">
-        <f>SUM(AC2:AC34)</f>
-        <v>-15</v>
-      </c>
-      <c r="AD39" s="2">
-        <f>SUM(AD2:AD34)</f>
-        <v>-95</v>
-      </c>
-      <c r="AE39" s="2">
-        <f>SUM(AE2:AE34)</f>
-        <v>59</v>
-      </c>
-      <c r="AF39" s="2">
-        <f>SUM(AF2:AF34)</f>
-        <v>-31</v>
-      </c>
-      <c r="AG39" s="2">
-        <f>SUM(AG2:AG34)</f>
-        <v>-39</v>
-      </c>
-      <c r="AH39" s="2">
-        <f>SUM(AH2:AH34)</f>
-        <v>27</v>
-      </c>
-      <c r="AI39" s="2">
-        <f>SUM(AI2:AI34)</f>
-        <v>37</v>
-      </c>
-      <c r="AJ39" s="2">
-        <f>SUM(AJ2:AJ34)</f>
-        <v>21</v>
-      </c>
-      <c r="AK39" s="2">
-        <f>SUM(AK2:AK34)</f>
-        <v>25</v>
-      </c>
-      <c r="AL39" s="2">
-        <f>SUM(AL2:AL34)</f>
-        <v>46</v>
-      </c>
-      <c r="AM39" s="2">
-        <f>SUM(AM2:AM34)</f>
-        <v>17</v>
-      </c>
-      <c r="AN39" s="2">
-        <f>SUM(AN2:AN34)</f>
-        <v>34</v>
-      </c>
-      <c r="AO39" s="2">
-        <f>SUM(AO2:AO34)</f>
-        <v>31</v>
-      </c>
-      <c r="AP39" s="2">
-        <f>SUM(AP2:AP34)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ39" s="2">
-        <f>SUM(AQ2:AQ34)</f>
-        <v>73</v>
-      </c>
-      <c r="AR39" s="2">
-        <f>SUM(AR2:AR34)</f>
-        <v>34</v>
-      </c>
-      <c r="AS39" s="2">
-        <f>SUM(AS2:AS34)</f>
-        <v>29</v>
-      </c>
-      <c r="AT39" s="2">
-        <f>SUM(AT2:AT34)</f>
-        <v>31</v>
-      </c>
-      <c r="AU39" s="2">
-        <f>SUM(AU2:AU34)</f>
-        <v>29</v>
-      </c>
-      <c r="AV39" s="2">
-        <f>SUM(AY2:AY35)</f>
-        <v>405</v>
-      </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5539,7 +5489,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5566,7 +5516,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5593,25 +5543,119 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
+    </row>
+    <row r="49" spans="34:56" x14ac:dyDescent="0.25">
+      <c r="AH49" s="2">
+        <f>SUM(AH2:AH34)</f>
+        <v>143</v>
+      </c>
+      <c r="AI49" s="2">
+        <f>SUM(AI2:AI34)</f>
+        <v>-41</v>
+      </c>
+      <c r="AJ49" s="2">
+        <f>SUM(AJ2:AJ34)</f>
+        <v>-50</v>
+      </c>
+      <c r="AK49" s="2">
+        <f>SUM(AK2:AK34)</f>
+        <v>-15</v>
+      </c>
+      <c r="AL49" s="2">
+        <f>SUM(AL2:AL34)</f>
+        <v>-95</v>
+      </c>
+      <c r="AM49" s="2">
+        <f>SUM(AM2:AM34)</f>
+        <v>59</v>
+      </c>
+      <c r="AN49" s="2">
+        <f>SUM(AN2:AN34)</f>
+        <v>-31</v>
+      </c>
+      <c r="AO49" s="2">
+        <f>SUM(AO2:AO34)</f>
+        <v>-39</v>
+      </c>
+      <c r="AP49" s="2">
+        <f>SUM(AP2:AP34)</f>
+        <v>27</v>
+      </c>
+      <c r="AQ49" s="2">
+        <f>SUM(AQ2:AQ34)</f>
+        <v>37</v>
+      </c>
+      <c r="AR49" s="2">
+        <f>SUM(AR2:AR34)</f>
+        <v>21</v>
+      </c>
+      <c r="AS49" s="2">
+        <f>SUM(AS2:AS34)</f>
+        <v>25</v>
+      </c>
+      <c r="AT49" s="2">
+        <f>SUM(AT2:AT34)</f>
+        <v>46</v>
+      </c>
+      <c r="AU49" s="2">
+        <f>SUM(AU2:AU34)</f>
+        <v>17</v>
+      </c>
+      <c r="AV49" s="2">
+        <f>SUM(AV2:AV34)</f>
+        <v>34</v>
+      </c>
+      <c r="AW49" s="2">
+        <f>SUM(AW2:AW34)</f>
+        <v>31</v>
+      </c>
+      <c r="AX49" s="2">
+        <f>SUM(AX2:AX34)</f>
+        <v>1</v>
+      </c>
+      <c r="AY49" s="2">
+        <f>SUM(AY2:AY34)</f>
+        <v>73</v>
+      </c>
+      <c r="AZ49" s="2">
+        <f>SUM(AZ2:AZ34)</f>
+        <v>34</v>
+      </c>
+      <c r="BA49" s="2">
+        <f>SUM(BA2:BA34)</f>
+        <v>29</v>
+      </c>
+      <c r="BB49" s="2">
+        <f>SUM(BB2:BB34)</f>
+        <v>31</v>
+      </c>
+      <c r="BC49" s="2">
+        <f>SUM(BC2:BC34)</f>
+        <v>29</v>
+      </c>
+      <c r="BD49" s="2">
+        <f>SUM(BL2:BL35)</f>
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
